--- a/Analise Git e Base de Dados.xlsx
+++ b/Analise Git e Base de Dados.xlsx
@@ -5,20 +5,20 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Desktop\Base\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Desktop\AnaliseGIT-master\AnaliseGIT-master\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="9810" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Geral" sheetId="1" r:id="rId1"/>
-    <sheet name="Dinamica" sheetId="3" r:id="rId2"/>
+    <sheet name="Dados Recolhidos" sheetId="1" r:id="rId1"/>
+    <sheet name="Análise Gráficas" sheetId="3" r:id="rId2"/>
     <sheet name="Base de Dados" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="31" r:id="rId4"/>
+    <pivotCache cacheId="0" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="112">
   <si>
     <t>files</t>
   </si>
@@ -591,6 +591,30 @@
   <si>
     <t>Cobertura de Doc.</t>
   </si>
+  <si>
+    <t>Moby Total</t>
+  </si>
+  <si>
+    <t>Ansible Total</t>
+  </si>
+  <si>
+    <t>Cli Total</t>
+  </si>
+  <si>
+    <t>Tensorflow Total</t>
+  </si>
+  <si>
+    <t>VsCode Total</t>
+  </si>
+  <si>
+    <t>React Native Total</t>
+  </si>
+  <si>
+    <t>Angular Cli Total</t>
+  </si>
+  <si>
+    <t>Angular Total</t>
+  </si>
 </sst>
 </file>
 
@@ -858,6 +882,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -885,26 +918,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="10" fontId="0" fillId="2" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="280">
+  <dxfs count="67">
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -919,7 +943,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -928,7 +952,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -943,7 +967,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -952,7 +976,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -967,7 +991,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -976,7 +1000,7 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -991,19 +1015,19 @@
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1012,697 +1036,10 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="166" formatCode="_-* #,##0.000_-;\-* #,##0.000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="167" formatCode="_-* #,##0.0000_-;\-* #,##0.0000_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="35" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="165" formatCode="0.0%"/>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1722,39 +1059,6 @@
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="3"/>
-        </patternFill>
-      </fill>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -1870,13 +1174,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1890,6 +1187,94 @@
           <color indexed="64"/>
         </bottom>
       </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="3"/>
+        </patternFill>
+      </fill>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="164" formatCode="0.0%"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1918,7 +1303,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Analise Git.xlsx]Dinamica!Tabela dinâmica14</c:name>
+    <c:name>[Analise Git e Base de Dados.xlsx]Análise Gráficas!Tabela dinâmica14</c:name>
     <c:fmtId val="2"/>
   </c:pivotSource>
   <c:chart>
@@ -1962,7 +1347,6 @@
         <c:idx val="1"/>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:dLblPos val="ctr"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="1"/>
@@ -1971,11 +1355,24 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
       </c:pivotFmt>
     </c:pivotFmts>
     <c:plotArea>
@@ -1989,7 +1386,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dinamica!$C$20:$C$21</c:f>
+              <c:f>'Análise Gráficas'!$C$20:$C$21</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2013,7 +1410,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dinamica!$B$22:$B$32</c:f>
+              <c:f>'Análise Gráficas'!$B$22:$B$32</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2051,7 +1448,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dinamica!$C$22:$C$32</c:f>
+              <c:f>'Análise Gráficas'!$C$22:$C$32</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2322,7 +1719,7 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:pivotSource>
-    <c:name>[Analise Git.xlsx]Dinamica!Tabela dinâmica16</c:name>
+    <c:name>[Analise Git e Base de Dados.xlsx]Análise Gráficas!Tabela dinâmica16</c:name>
     <c:fmtId val="3"/>
   </c:pivotSource>
   <c:chart>
@@ -2341,7 +1738,7 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr>
-            <a:defRPr sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" spc="50" baseline="0">
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
                   <a:lumMod val="65000"/>
@@ -2364,24 +1761,92 @@
       </c:pivotFmt>
       <c:pivotFmt>
         <c:idx val="1"/>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:layout/>
+          <c:dLblPos val="inEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="1"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+              <c15:layout/>
+            </c:ext>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="3"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="4"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="5"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="6"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="7"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="8"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="9"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="10"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="11"/>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="12"/>
         <c:spPr>
-          <a:solidFill>
-            <a:schemeClr val="accent1"/>
-          </a:solidFill>
+          <a:gradFill rotWithShape="1">
+            <a:gsLst>
+              <a:gs pos="0">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="103000"/>
+                  <a:lumMod val="102000"/>
+                  <a:tint val="94000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="50000">
+                <a:schemeClr val="accent1">
+                  <a:satMod val="110000"/>
+                  <a:lumMod val="100000"/>
+                  <a:shade val="100000"/>
+                </a:schemeClr>
+              </a:gs>
+              <a:gs pos="100000">
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="99000"/>
+                  <a:satMod val="120000"/>
+                  <a:shade val="78000"/>
+                </a:schemeClr>
+              </a:gs>
+            </a:gsLst>
+            <a:lin ang="5400000" scaled="0"/>
+          </a:gradFill>
           <a:ln>
             <a:noFill/>
           </a:ln>
-          <a:effectLst/>
-          <a:scene3d>
-            <a:camera prst="orthographicFront"/>
-            <a:lightRig rig="brightRoom" dir="t"/>
-          </a:scene3d>
-          <a:sp3d prstMaterial="flat">
-            <a:bevelT w="50800" h="101600" prst="angle"/>
-            <a:contourClr>
-              <a:srgbClr val="000000"/>
-            </a:contourClr>
-          </a:sp3d>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </c:spPr>
         <c:marker>
           <c:symbol val="circle"/>
@@ -2404,9 +1869,12 @@
             <a:lstStyle/>
             <a:p>
               <a:pPr>
-                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                   <a:solidFill>
-                    <a:schemeClr val="lt1"/>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
                   </a:solidFill>
                   <a:latin typeface="+mn-lt"/>
                   <a:ea typeface="+mn-ea"/>
@@ -2440,7 +1908,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Dinamica!$C$60:$C$61</c:f>
+              <c:f>'Análise Gráficas'!$C$60:$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -2453,239 +1921,483 @@
             <c:idx val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="3"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="4"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent5">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent5">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="5"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6"/>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="6"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent1">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="7"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent2">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent2">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="8"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent3">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="9"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent4">
-                  <a:lumMod val="60000"/>
-                </a:schemeClr>
-              </a:solidFill>
+              <a:gradFill rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="103000"/>
+                      <a:lumMod val="102000"/>
+                      <a:tint val="94000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:satMod val="110000"/>
+                      <a:lumMod val="100000"/>
+                      <a:shade val="100000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent4">
+                      <a:lumMod val="60000"/>
+                      <a:lumMod val="99000"/>
+                      <a:satMod val="120000"/>
+                      <a:shade val="78000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="5400000" scaled="0"/>
+              </a:gradFill>
               <a:ln>
                 <a:noFill/>
               </a:ln>
-              <a:effectLst/>
-              <a:scene3d>
-                <a:camera prst="orthographicFront"/>
-                <a:lightRig rig="brightRoom" dir="t"/>
-              </a:scene3d>
-              <a:sp3d prstMaterial="flat">
-                <a:bevelT w="50800" h="101600" prst="angle"/>
-                <a:contourClr>
-                  <a:srgbClr val="000000"/>
-                </a:contourClr>
-              </a:sp3d>
+              <a:effectLst>
+                <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="000000">
+                    <a:alpha val="63000"/>
+                  </a:srgbClr>
+                </a:outerShdw>
+              </a:effectLst>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-D9D8-4CB0-BC76-2367236B5129}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2702,9 +2414,12 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
                     <a:solidFill>
-                      <a:schemeClr val="lt1"/>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
                     </a:solidFill>
                     <a:latin typeface="+mn-lt"/>
                     <a:ea typeface="+mn-ea"/>
@@ -2744,7 +2459,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Dinamica!$B$62:$B$72</c:f>
+              <c:f>'Análise Gráficas'!$B$62:$B$72</c:f>
               <c:strCache>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
@@ -2782,7 +2497,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Dinamica!$C$62:$C$72</c:f>
+              <c:f>'Análise Gráficas'!$C$62:$C$72</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="10"/>
@@ -2930,6 +2645,751 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[Analise Git e Base de Dados.xlsx]Análise Gráficas!Tabela dinâmica3</c:name>
+    <c:fmtId val="6"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Análise Gráficas'!$D$90:$D$91</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>'Análise Gráficas'!$B$92:$C$164</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="64"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Protocol Buffers</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Dockerfile</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>PowerShell</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>C</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>vim script</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>C/C++ Header</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Bourne Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Go</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>C++</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>TypeScript</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Protocol Buffers</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>Objective C</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Go</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>XML</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Dockerfile</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Bourne Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>C/C++ Header</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Bourne Again Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Skylark</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>CMake</c:v>
+                  </c:pt>
+                  <c:pt idx="24">
+                    <c:v>Perl</c:v>
+                  </c:pt>
+                  <c:pt idx="25">
+                    <c:v>Gradle</c:v>
+                  </c:pt>
+                  <c:pt idx="26">
+                    <c:v>SWIG</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>R</c:v>
+                  </c:pt>
+                  <c:pt idx="28">
+                    <c:v>Ruby</c:v>
+                  </c:pt>
+                  <c:pt idx="29">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>Groovy</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>Bourne Again Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>diff</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>Visual Basic</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>INI</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>F#</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>Objective C</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>TOML</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>Python</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>Pug</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>Clojure</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>JSX</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>Assembly</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>ProGuard</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>Bourne Again Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>Gradle</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>C/C++ Header</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>Skylark</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>XML</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>Bourne Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>JavaScript</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>Java</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>CSS</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>Sass</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>Skylark</c:v>
+                  </c:pt>
+                  <c:pt idx="55">
+                    <c:v>JavaScript</c:v>
+                  </c:pt>
+                  <c:pt idx="56">
+                    <c:v>EJS</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Pascal</c:v>
+                  </c:pt>
+                  <c:pt idx="58">
+                    <c:v>Skylark</c:v>
+                  </c:pt>
+                  <c:pt idx="59">
+                    <c:v>Dockerfile</c:v>
+                  </c:pt>
+                  <c:pt idx="60">
+                    <c:v>Bourne Shell</c:v>
+                  </c:pt>
+                  <c:pt idx="61">
+                    <c:v>JavaScript</c:v>
+                  </c:pt>
+                  <c:pt idx="62">
+                    <c:v>TypeScript</c:v>
+                  </c:pt>
+                  <c:pt idx="63">
+                    <c:v>YAML</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Moby</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Ansible</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Cli</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Tensorflow</c:v>
+                  </c:pt>
+                  <c:pt idx="27">
+                    <c:v>VsCode</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>React Native</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>Angular Cli</c:v>
+                  </c:pt>
+                  <c:pt idx="57">
+                    <c:v>Angular</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Análise Gráficas'!$D$92:$D$164</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="64"/>
+                <c:pt idx="0">
+                  <c:v>1.0413838405955769</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.45853658536585368</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.37573964497041418</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31813953488372093</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.27777777777777779</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.20689655172413793</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.65744962142415231</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.26082068577852724</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.22950819672131148</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0.7361071530350527</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.40732608579232044</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.0243747350572276</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.89655172413793105</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.86366421568627449</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.67452830188679247</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>0.55232558139534882</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.51537315454422317</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.45030056396948209</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.39060412343147211</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.37816570786219667</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.35371179039301309</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.29894798363530101</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.26749271137026237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.25657894736842107</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.2073170731707317</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.20114799101572248</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.81818181818181823</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.53846153846153844</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.47826086956521741</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.45283018867924529</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.44186046511627908</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.375</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.2857142857142857</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.27272727272727271</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.23076923076923078</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.22727272727272727</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.21052631578947367</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.2670157068062826</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.625</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.55758683729433267</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.51573956667953025</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.42405063291139239</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.3125</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.28157683024939661</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.22014866360904634</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.20893849303050979</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.29629629629629628</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.21501272264631044</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.20982142857142858</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.1926605504587156</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.5272988505747126</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.28205128205128205</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.22686707374354156</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.21446648225531165</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.20728539359619916</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.20358514724711907</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5A56-47C7-A927-6A6B1321380F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="758388976"/>
+        <c:axId val="758388560"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="758388976"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758388560"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="758388560"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="758388976"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2971,6 +3431,46 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3516,7 +4016,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="258">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="344">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -3539,6 +4039,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:categoryAxis>
   <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
@@ -3546,7 +4057,7 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="tx2"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
@@ -3569,9 +4080,12 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="lt1"/>
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="900" b="1" kern="1200"/>
+    <cs:defRPr sz="900" kern="1200"/>
   </cs:dataLabel>
   <cs:dataLabelCallout>
     <cs:lnRef idx="0"/>
@@ -3603,54 +4117,531 @@
   </cs:dataLabelCallout>
   <cs:dataPoint>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="34925" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="3"/>
+    <cs:effectRef idx="3"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1600" b="1" kern="1200" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="lt1"/>
+    </cs:fontRef>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:scene3d>
-        <a:camera prst="orthographicFront"/>
-        <a:lightRig rig="brightRoom" dir="t"/>
-      </a:scene3d>
-      <a:sp3d prstMaterial="flat">
-        <a:bevelT w="50800" h="101600" prst="angle"/>
-        <a:contourClr>
-          <a:srgbClr val="000000"/>
-        </a:contourClr>
-      </a:sp3d>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="19050">
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3665,8 +4656,10 @@
     </cs:spPr>
   </cs:dataPointLine>
   <cs:dataPointMarker>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0">
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
       <cs:styleClr val="auto"/>
     </cs:fillRef>
     <cs:effectRef idx="0"/>
@@ -3674,22 +4667,19 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
-          <a:schemeClr val="lt1"/>
+          <a:schemeClr val="phClr"/>
         </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="6"/>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
   <cs:dataPointWireframe>
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="0"/>
+    <cs:fillRef idx="1"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
@@ -3732,23 +4722,22 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -3853,8 +4842,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -3949,7 +4938,7 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
-    <cs:defRPr sz="1400" b="1" i="0" kern="1200" cap="all" spc="50" baseline="0"/>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
   </cs:title>
   <cs:trendline>
     <cs:lnRef idx="0">
@@ -3965,7 +4954,7 @@
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:prstDash val="sysDash"/>
+        <a:prstDash val="sysDot"/>
       </a:ln>
     </cs:spPr>
   </cs:trendline>
@@ -3986,20 +4975,19 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
-        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -4110,15 +5098,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>1262062</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
+      <xdr:colOff>661986</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>33337</xdr:colOff>
-      <xdr:row>68</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:colOff>333374</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -4132,6 +5120,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>823911</xdr:colOff>
+      <xdr:row>87</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>107</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5973,7 +6991,867 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica16" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="4">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
+  <location ref="B90:D164" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
+  <pivotFields count="8">
+    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
+      <items count="11">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField axis="axisRow" compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="68">
+        <item x="33"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="46"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item x="50"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="62"/>
+        <item x="20"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="29"/>
+        <item x="58"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="16"/>
+        <item x="63"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="5"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="0"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="73">
+    <i>
+      <x v="4"/>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="42"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="61"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i t="default">
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="7"/>
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i t="default">
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="6"/>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i t="default">
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="1"/>
+      <x v="44"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="17"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="40"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="56"/>
+    </i>
+    <i t="default">
+      <x v="1"/>
+    </i>
+    <i>
+      <x/>
+      <x v="47"/>
+    </i>
+    <i r="1">
+      <x v="50"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i r="1">
+      <x v="19"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="12"/>
+    </i>
+    <i r="1">
+      <x v="62"/>
+    </i>
+    <i r="1">
+      <x v="23"/>
+    </i>
+    <i r="1">
+      <x v="16"/>
+    </i>
+    <i r="1">
+      <x v="37"/>
+    </i>
+    <i r="1">
+      <x v="58"/>
+    </i>
+    <i r="1">
+      <x v="46"/>
+    </i>
+    <i r="1">
+      <x v="45"/>
+    </i>
+    <i r="1">
+      <x v="7"/>
+    </i>
+    <i r="1">
+      <x v="28"/>
+    </i>
+    <i t="default">
+      <x/>
+    </i>
+    <i>
+      <x v="2"/>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="43"/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="18"/>
+    </i>
+    <i r="1">
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="66"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="25"/>
+    </i>
+    <i t="default">
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="8"/>
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="52"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="15"/>
+    </i>
+    <i t="default">
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+      <x v="39"/>
+    </i>
+    <i r="1">
+      <x v="53"/>
+    </i>
+    <i r="1">
+      <x v="13"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="26"/>
+    </i>
+    <i r="1">
+      <x v="59"/>
+    </i>
+    <i r="1">
+      <x v="67"/>
+    </i>
+    <i t="default">
+      <x v="9"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="0">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="1">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="2">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="3">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="4">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="5">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="6">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="7">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="4">
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="6" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0.2"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B20:C32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="10">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="68">
+        <item x="33"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="46"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item x="50"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="62"/>
+        <item x="20"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="29"/>
+        <item x="58"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="16"/>
+        <item x="63"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="5"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="58">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="57">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="56">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="55">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="54">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="53">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="52">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="51">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0.2"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="10">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Arquivos" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Linguagens" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Linhas Comentadas" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Linhas de Código" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Cobertura de Doc." fld="7" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
   <location ref="B60:C72" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="8">
     <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
@@ -6132,44 +8010,44 @@
     <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="8">
+    <format dxfId="66">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="9">
+    <format dxfId="65">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="10">
+    <format dxfId="64">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="11">
+    <format dxfId="63">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="12">
+    <format dxfId="62">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="13">
+    <format dxfId="61">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="14">
+    <format dxfId="60">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="15">
+    <format dxfId="59">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
@@ -6196,7 +8074,7 @@
         </references>
       </pivotArea>
     </chartFormat>
-    <chartFormat chart="3" format="1" series="1">
+    <chartFormat chart="3" format="12" series="1">
       <pivotArea type="data" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1" selected="0">
@@ -6226,418 +8104,17 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica14" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B20:C32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
-      <items count="68">
-        <item x="33"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="34"/>
-        <item x="23"/>
-        <item x="36"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="46"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item x="50"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="62"/>
-        <item x="20"/>
-        <item x="41"/>
-        <item x="52"/>
-        <item x="29"/>
-        <item x="58"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="59"/>
-        <item x="43"/>
-        <item x="31"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="48"/>
-        <item x="45"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="53"/>
-        <item x="17"/>
-        <item x="42"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="16"/>
-        <item x="63"/>
-        <item x="55"/>
-        <item x="51"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="66"/>
-        <item x="64"/>
-        <item x="47"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="0"/>
-        <item x="21"/>
-        <item x="37"/>
-        <item x="61"/>
-        <item x="35"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="5"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="40">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="37">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="36">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="35">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0.2"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="31" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Arquivos" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Linguagens" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Linhas Comentadas" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Linhas de Código" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Cobertura de Doc." fld="7" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G191" totalsRowShown="0" headerRowDxfId="270" headerRowBorderDxfId="278" tableBorderDxfId="279" totalsRowBorderDxfId="277">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G191" totalsRowShown="0" headerRowDxfId="50" headerRowBorderDxfId="49" tableBorderDxfId="48" totalsRowBorderDxfId="47">
   <autoFilter ref="A1:G191"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Repo" dataDxfId="276"/>
-    <tableColumn id="2" name="Arq" dataDxfId="275"/>
-    <tableColumn id="3" name="Language" dataDxfId="274"/>
-    <tableColumn id="4" name="Branco" dataDxfId="273"/>
-    <tableColumn id="5" name="Comentadas" dataDxfId="272"/>
-    <tableColumn id="6" name="Code" dataDxfId="271"/>
-    <tableColumn id="7" name="Cobertura" dataDxfId="269" dataCellStyle="Porcentagem">
+    <tableColumn id="1" name="Repo" dataDxfId="46"/>
+    <tableColumn id="2" name="Arq" dataDxfId="45"/>
+    <tableColumn id="3" name="Language" dataDxfId="44"/>
+    <tableColumn id="4" name="Branco" dataDxfId="43"/>
+    <tableColumn id="5" name="Comentadas" dataDxfId="42"/>
+    <tableColumn id="6" name="Code" dataDxfId="41"/>
+    <tableColumn id="7" name="Cobertura" dataDxfId="40" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -6911,7 +8388,7 @@
   <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="R20" sqref="R20"/>
+      <selection activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6926,22 +8403,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="19" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="H1" s="22" t="s">
+      <c r="B1" s="19"/>
+      <c r="C1" s="19"/>
+      <c r="D1" s="19"/>
+      <c r="E1" s="19"/>
+      <c r="F1" s="19"/>
+      <c r="H1" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="22"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="22"/>
-      <c r="M1" s="22"/>
+      <c r="I1" s="19"/>
+      <c r="J1" s="19"/>
+      <c r="K1" s="19"/>
+      <c r="L1" s="19"/>
+      <c r="M1" s="19"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -6962,14 +8439,14 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="H2" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="14"/>
-      <c r="J2" s="14"/>
-      <c r="K2" s="14"/>
-      <c r="L2" s="14"/>
-      <c r="M2" s="15"/>
+      <c r="I2" s="21"/>
+      <c r="J2" s="21"/>
+      <c r="K2" s="21"/>
+      <c r="L2" s="21"/>
+      <c r="M2" s="22"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -6990,12 +8467,12 @@
       <c r="F3">
         <v>51258</v>
       </c>
-      <c r="H3" s="16"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="17"/>
-      <c r="M3" s="18"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="24"/>
+      <c r="M3" s="25"/>
       <c r="P3" t="s">
         <v>84</v>
       </c>
@@ -7019,12 +8496,12 @@
       <c r="F4">
         <v>9978</v>
       </c>
-      <c r="H4" s="16"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
-      <c r="M4" s="18"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24"/>
+      <c r="K4" s="24"/>
+      <c r="L4" s="24"/>
+      <c r="M4" s="25"/>
       <c r="P4" t="s">
         <v>76</v>
       </c>
@@ -7048,12 +8525,12 @@
       <c r="F5">
         <v>9469</v>
       </c>
-      <c r="H5" s="16"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
-      <c r="K5" s="17"/>
-      <c r="L5" s="17"/>
-      <c r="M5" s="18"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="25"/>
       <c r="P5" t="s">
         <v>77</v>
       </c>
@@ -7077,12 +8554,12 @@
       <c r="F6">
         <v>786</v>
       </c>
-      <c r="H6" s="16"/>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
-      <c r="K6" s="17"/>
-      <c r="L6" s="17"/>
-      <c r="M6" s="18"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="24"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="25"/>
       <c r="P6" t="s">
         <v>78</v>
       </c>
@@ -7106,12 +8583,12 @@
       <c r="F7">
         <v>323</v>
       </c>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="17"/>
-      <c r="M7" s="18"/>
+      <c r="H7" s="23"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="24"/>
+      <c r="M7" s="25"/>
       <c r="P7" t="s">
         <v>85</v>
       </c>
@@ -7135,12 +8612,12 @@
       <c r="F8">
         <v>257</v>
       </c>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="17"/>
-      <c r="M8" s="18"/>
+      <c r="H8" s="23"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="25"/>
       <c r="P8" t="s">
         <v>79</v>
       </c>
@@ -7164,12 +8641,12 @@
       <c r="F9">
         <v>224</v>
       </c>
-      <c r="H9" s="16"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="17"/>
-      <c r="M9" s="18"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="25"/>
       <c r="P9" t="s">
         <v>80</v>
       </c>
@@ -7193,12 +8670,12 @@
       <c r="F10">
         <v>54</v>
       </c>
-      <c r="H10" s="16"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="17"/>
-      <c r="M10" s="18"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="25"/>
       <c r="P10" t="s">
         <v>81</v>
       </c>
@@ -7222,12 +8699,12 @@
       <c r="F11">
         <v>21</v>
       </c>
-      <c r="H11" s="16"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="17"/>
-      <c r="M11" s="18"/>
+      <c r="H11" s="23"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="25"/>
       <c r="P11" t="s">
         <v>82</v>
       </c>
@@ -7251,12 +8728,12 @@
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="H12" s="16"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="17"/>
-      <c r="M12" s="18"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="25"/>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -7280,20 +8757,20 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="17"/>
-      <c r="M13" s="18"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="25"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="17"/>
-      <c r="M14" s="18"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="25"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -7311,12 +8788,12 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="17"/>
-      <c r="M15" s="18"/>
+      <c r="H15" s="23"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24"/>
+      <c r="M15" s="25"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -7337,12 +8814,12 @@
       <c r="F16">
         <v>306037</v>
       </c>
-      <c r="H16" s="16"/>
-      <c r="I16" s="17"/>
-      <c r="J16" s="17"/>
-      <c r="K16" s="17"/>
-      <c r="L16" s="17"/>
-      <c r="M16" s="18"/>
+      <c r="H16" s="23"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24"/>
+      <c r="M16" s="25"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -7363,12 +8840,12 @@
       <c r="F17">
         <v>35450</v>
       </c>
-      <c r="H17" s="16"/>
-      <c r="I17" s="17"/>
-      <c r="J17" s="17"/>
-      <c r="K17" s="17"/>
-      <c r="L17" s="17"/>
-      <c r="M17" s="18"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24"/>
+      <c r="M17" s="25"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -7389,12 +8866,12 @@
       <c r="F18">
         <v>19796</v>
       </c>
-      <c r="H18" s="16"/>
-      <c r="I18" s="17"/>
-      <c r="J18" s="17"/>
-      <c r="K18" s="17"/>
-      <c r="L18" s="17"/>
-      <c r="M18" s="18"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24"/>
+      <c r="M18" s="25"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -7415,12 +8892,12 @@
       <c r="F19">
         <v>16991</v>
       </c>
-      <c r="H19" s="16"/>
-      <c r="I19" s="17"/>
-      <c r="J19" s="17"/>
-      <c r="K19" s="17"/>
-      <c r="L19" s="17"/>
-      <c r="M19" s="18"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24"/>
+      <c r="M19" s="25"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -7441,12 +8918,12 @@
       <c r="F20">
         <v>8004</v>
       </c>
-      <c r="H20" s="16"/>
-      <c r="I20" s="17"/>
-      <c r="J20" s="17"/>
-      <c r="K20" s="17"/>
-      <c r="L20" s="17"/>
-      <c r="M20" s="18"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="25"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -7467,12 +8944,12 @@
       <c r="F21">
         <v>4590</v>
       </c>
-      <c r="H21" s="16"/>
-      <c r="I21" s="17"/>
-      <c r="J21" s="17"/>
-      <c r="K21" s="17"/>
-      <c r="L21" s="17"/>
-      <c r="M21" s="18"/>
+      <c r="H21" s="23"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="25"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -7493,12 +8970,12 @@
       <c r="F22">
         <v>3474</v>
       </c>
-      <c r="H22" s="16"/>
-      <c r="I22" s="17"/>
-      <c r="J22" s="17"/>
-      <c r="K22" s="17"/>
-      <c r="L22" s="17"/>
-      <c r="M22" s="18"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="25"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -7519,12 +8996,12 @@
       <c r="F23">
         <v>2129</v>
       </c>
-      <c r="H23" s="16"/>
-      <c r="I23" s="17"/>
-      <c r="J23" s="17"/>
-      <c r="K23" s="17"/>
-      <c r="L23" s="17"/>
-      <c r="M23" s="18"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="25"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -7545,12 +9022,12 @@
       <c r="F24">
         <v>1392</v>
       </c>
-      <c r="H24" s="16"/>
-      <c r="I24" s="17"/>
-      <c r="J24" s="17"/>
-      <c r="K24" s="17"/>
-      <c r="L24" s="17"/>
-      <c r="M24" s="18"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="25"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -7571,12 +9048,12 @@
       <c r="F25">
         <v>781</v>
       </c>
-      <c r="H25" s="16"/>
-      <c r="I25" s="17"/>
-      <c r="J25" s="17"/>
-      <c r="K25" s="17"/>
-      <c r="L25" s="17"/>
-      <c r="M25" s="18"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="25"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -7597,12 +9074,12 @@
       <c r="F26">
         <v>204</v>
       </c>
-      <c r="H26" s="16"/>
-      <c r="I26" s="17"/>
-      <c r="J26" s="17"/>
-      <c r="K26" s="17"/>
-      <c r="L26" s="17"/>
-      <c r="M26" s="18"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="25"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -7623,12 +9100,12 @@
       <c r="F27">
         <v>156</v>
       </c>
-      <c r="H27" s="16"/>
-      <c r="I27" s="17"/>
-      <c r="J27" s="17"/>
-      <c r="K27" s="17"/>
-      <c r="L27" s="17"/>
-      <c r="M27" s="18"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="25"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -7649,12 +9126,12 @@
       <c r="F28">
         <v>149</v>
       </c>
-      <c r="H28" s="16"/>
-      <c r="I28" s="17"/>
-      <c r="J28" s="17"/>
-      <c r="K28" s="17"/>
-      <c r="L28" s="17"/>
-      <c r="M28" s="18"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="25"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -7675,12 +9152,12 @@
       <c r="F29">
         <v>109</v>
       </c>
-      <c r="H29" s="16"/>
-      <c r="I29" s="17"/>
-      <c r="J29" s="17"/>
-      <c r="K29" s="17"/>
-      <c r="L29" s="17"/>
-      <c r="M29" s="18"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="25"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -7701,20 +9178,20 @@
       <c r="F30">
         <v>16</v>
       </c>
-      <c r="H30" s="16"/>
-      <c r="I30" s="17"/>
-      <c r="J30" s="17"/>
-      <c r="K30" s="17"/>
-      <c r="L30" s="17"/>
-      <c r="M30" s="18"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="25"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H31" s="16"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
-      <c r="K31" s="17"/>
-      <c r="L31" s="17"/>
-      <c r="M31" s="18"/>
+      <c r="H31" s="23"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="25"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -7732,12 +9209,12 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="16"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
-      <c r="K32" s="17"/>
-      <c r="L32" s="17"/>
-      <c r="M32" s="18"/>
+      <c r="H32" s="23"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="25"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -7758,12 +9235,12 @@
       <c r="F33">
         <v>543088</v>
       </c>
-      <c r="H33" s="16"/>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
-      <c r="K33" s="17"/>
-      <c r="L33" s="17"/>
-      <c r="M33" s="18"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="25"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -7784,12 +9261,12 @@
       <c r="F34">
         <v>188259</v>
       </c>
-      <c r="H34" s="16"/>
-      <c r="I34" s="17"/>
-      <c r="J34" s="17"/>
-      <c r="K34" s="17"/>
-      <c r="L34" s="17"/>
-      <c r="M34" s="18"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="25"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -7810,12 +9287,12 @@
       <c r="F35">
         <v>37812</v>
       </c>
-      <c r="H35" s="16"/>
-      <c r="I35" s="17"/>
-      <c r="J35" s="17"/>
-      <c r="K35" s="17"/>
-      <c r="L35" s="17"/>
-      <c r="M35" s="18"/>
+      <c r="H35" s="23"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="25"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -7836,12 +9313,12 @@
       <c r="F36">
         <v>18229</v>
       </c>
-      <c r="H36" s="16"/>
-      <c r="I36" s="17"/>
-      <c r="J36" s="17"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="18"/>
+      <c r="H36" s="23"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="25"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -7862,12 +9339,12 @@
       <c r="F37">
         <v>13044</v>
       </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="20"/>
-      <c r="M37" s="21"/>
+      <c r="H37" s="26"/>
+      <c r="I37" s="27"/>
+      <c r="J37" s="27"/>
+      <c r="K37" s="27"/>
+      <c r="L37" s="27"/>
+      <c r="M37" s="28"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -11181,14 +12658,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:G72"/>
+  <dimension ref="B3:G164"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="35" customWidth="1"/>
-    <col min="3" max="4" width="12" customWidth="1"/>
+    <col min="3" max="3" width="18" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
     <col min="5" max="6" width="35" customWidth="1"/>
     <col min="7" max="7" width="17" customWidth="1"/>
     <col min="8" max="8" width="35" bestFit="1" customWidth="1"/>
@@ -11541,13 +13019,13 @@
       </c>
     </row>
     <row r="37" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C37" s="28"/>
+      <c r="C37" s="18"/>
     </row>
     <row r="38" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C38" s="28"/>
+      <c r="C38" s="18"/>
     </row>
     <row r="39" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="C39" s="28"/>
+      <c r="C39" s="18"/>
     </row>
     <row r="43" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B43" s="11"/>
@@ -11693,9 +13171,689 @@
         <v>0.21341226358848078</v>
       </c>
     </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B90" s="10" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B91" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="C91" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="D91" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B92" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" t="s">
+        <v>37</v>
+      </c>
+      <c r="D92" s="12">
+        <v>1.0413838405955769</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B93" s="11"/>
+      <c r="C93" t="s">
+        <v>18</v>
+      </c>
+      <c r="D93" s="12">
+        <v>0.45853658536585368</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B94" s="11"/>
+      <c r="C94" t="s">
+        <v>22</v>
+      </c>
+      <c r="D94" s="12">
+        <v>0.37573964497041418</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B95" s="11"/>
+      <c r="C95" t="s">
+        <v>39</v>
+      </c>
+      <c r="D95" s="12">
+        <v>0.31813953488372093</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B96" s="11"/>
+      <c r="C96" t="s">
+        <v>42</v>
+      </c>
+      <c r="D96" s="12">
+        <v>0.27777777777777779</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B97" s="11"/>
+      <c r="C97" t="s">
+        <v>41</v>
+      </c>
+      <c r="D97" s="12">
+        <v>0.20689655172413793</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" s="12">
+        <v>0.85526315789473684</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B99" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C99" t="s">
+        <v>21</v>
+      </c>
+      <c r="D99" s="12">
+        <v>0.65744962142415231</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B100" s="11"/>
+      <c r="C100" t="s">
+        <v>16</v>
+      </c>
+      <c r="D100" s="12">
+        <v>0.26082068577852724</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B101" s="11"/>
+      <c r="C101" t="s">
+        <v>25</v>
+      </c>
+      <c r="D101" s="12">
+        <v>0.22950819672131148</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>105</v>
+      </c>
+      <c r="D102" s="12">
+        <v>0.6561068618239474</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B103" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C103" t="s">
+        <v>35</v>
+      </c>
+      <c r="D103" s="12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B104" s="11"/>
+      <c r="C104" t="s">
+        <v>5</v>
+      </c>
+      <c r="D104" s="12">
+        <v>0.7361071530350527</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B105" s="11"/>
+      <c r="C105" t="s">
+        <v>21</v>
+      </c>
+      <c r="D105" s="12">
+        <v>0.40732608579232044</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>106</v>
+      </c>
+      <c r="D106" s="12">
+        <v>0.497510696227149</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B107" s="11" t="s">
+        <v>82</v>
+      </c>
+      <c r="C107" t="s">
+        <v>37</v>
+      </c>
+      <c r="D107" s="12">
+        <v>1.0243747350572276</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B108" s="11"/>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108" s="12">
+        <v>0.89655172413793105</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B109" s="11"/>
+      <c r="C109" t="s">
+        <v>25</v>
+      </c>
+      <c r="D109" s="12">
+        <v>0.86366421568627449</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B110" s="11"/>
+      <c r="C110" t="s">
+        <v>20</v>
+      </c>
+      <c r="D110" s="12">
+        <v>0.67452830188679247</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B111" s="11"/>
+      <c r="C111" t="s">
+        <v>18</v>
+      </c>
+      <c r="D111" s="12">
+        <v>0.55232558139534882</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B112" s="11"/>
+      <c r="C112" t="s">
+        <v>16</v>
+      </c>
+      <c r="D112" s="12">
+        <v>0.51537315454422317</v>
+      </c>
+    </row>
+    <row r="113" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B113" s="11"/>
+      <c r="C113" t="s">
+        <v>41</v>
+      </c>
+      <c r="D113" s="12">
+        <v>0.45030056396948209</v>
+      </c>
+    </row>
+    <row r="114" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B114" s="11"/>
+      <c r="C114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" s="12">
+        <v>0.39060412343147211</v>
+      </c>
+    </row>
+    <row r="115" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B115" s="11"/>
+      <c r="C115" t="s">
+        <v>43</v>
+      </c>
+      <c r="D115" s="12">
+        <v>0.37816570786219667</v>
+      </c>
+    </row>
+    <row r="116" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B116" s="11"/>
+      <c r="C116" t="s">
+        <v>17</v>
+      </c>
+      <c r="D116" s="12">
+        <v>0.35371179039301309</v>
+      </c>
+    </row>
+    <row r="117" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B117" s="11"/>
+      <c r="C117" t="s">
+        <v>12</v>
+      </c>
+      <c r="D117" s="12">
+        <v>0.29894798363530101</v>
+      </c>
+    </row>
+    <row r="118" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B118" s="11"/>
+      <c r="C118" t="s">
+        <v>51</v>
+      </c>
+      <c r="D118" s="12">
+        <v>0.26749271137026237</v>
+      </c>
+    </row>
+    <row r="119" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B119" s="11"/>
+      <c r="C119" t="s">
+        <v>54</v>
+      </c>
+      <c r="D119" s="12">
+        <v>0.25657894736842107</v>
+      </c>
+    </row>
+    <row r="120" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B120" s="11"/>
+      <c r="C120" t="s">
+        <v>46</v>
+      </c>
+      <c r="D120" s="12">
+        <v>0.2073170731707317</v>
+      </c>
+    </row>
+    <row r="121" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B121" s="11"/>
+      <c r="C121" t="s">
+        <v>52</v>
+      </c>
+      <c r="D121" s="12">
+        <v>0.20114799101572248</v>
+      </c>
+    </row>
+    <row r="122" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B122" t="s">
+        <v>107</v>
+      </c>
+      <c r="D122" s="12">
+        <v>0.41582072536398834</v>
+      </c>
+    </row>
+    <row r="123" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B123" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="C123" t="s">
+        <v>68</v>
+      </c>
+      <c r="D123" s="12">
+        <v>0.81818181818181823</v>
+      </c>
+    </row>
+    <row r="124" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B124" s="11"/>
+      <c r="C124" t="s">
+        <v>62</v>
+      </c>
+      <c r="D124" s="12">
+        <v>0.53846153846153844</v>
+      </c>
+    </row>
+    <row r="125" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B125" s="11"/>
+      <c r="C125" t="s">
+        <v>43</v>
+      </c>
+      <c r="D125" s="12">
+        <v>0.47826086956521741</v>
+      </c>
+    </row>
+    <row r="126" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B126" s="11"/>
+      <c r="C126" t="s">
+        <v>57</v>
+      </c>
+      <c r="D126" s="12">
+        <v>0.45283018867924529</v>
+      </c>
+    </row>
+    <row r="127" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B127" s="11"/>
+      <c r="C127" t="s">
+        <v>17</v>
+      </c>
+      <c r="D127" s="12">
+        <v>0.44186046511627908</v>
+      </c>
+    </row>
+    <row r="128" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B128" s="11"/>
+      <c r="C128" t="s">
+        <v>72</v>
+      </c>
+      <c r="D128" s="12">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="129" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B129" s="11"/>
+      <c r="C129" t="s">
+        <v>66</v>
+      </c>
+      <c r="D129" s="12">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="130" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B130" s="11"/>
+      <c r="C130" t="s">
+        <v>23</v>
+      </c>
+      <c r="D130" s="12">
+        <v>0.2857142857142857</v>
+      </c>
+    </row>
+    <row r="131" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B131" s="11"/>
+      <c r="C131" t="s">
+        <v>67</v>
+      </c>
+      <c r="D131" s="12">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="132" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B132" s="11"/>
+      <c r="C132" t="s">
+        <v>44</v>
+      </c>
+      <c r="D132" s="12">
+        <v>0.27272727272727271</v>
+      </c>
+    </row>
+    <row r="133" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B133" s="11"/>
+      <c r="C133" t="s">
+        <v>29</v>
+      </c>
+      <c r="D133" s="12">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="134" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B134" s="11"/>
+      <c r="C134" t="s">
+        <v>21</v>
+      </c>
+      <c r="D134" s="12">
+        <v>0.23076923076923078</v>
+      </c>
+    </row>
+    <row r="135" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B135" s="11"/>
+      <c r="C135" t="s">
+        <v>65</v>
+      </c>
+      <c r="D135" s="12">
+        <v>0.22727272727272727</v>
+      </c>
+    </row>
+    <row r="136" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B136" s="11"/>
+      <c r="C136" t="s">
+        <v>59</v>
+      </c>
+      <c r="D136" s="12">
+        <v>0.21052631578947367</v>
+      </c>
+    </row>
+    <row r="137" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B137" s="11"/>
+      <c r="C137" t="s">
+        <v>64</v>
+      </c>
+      <c r="D137" s="12">
+        <v>0.20833333333333334</v>
+      </c>
+    </row>
+    <row r="138" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B138" t="s">
+        <v>108</v>
+      </c>
+      <c r="D138" s="12">
+        <v>0.36897274633123689</v>
+      </c>
+    </row>
+    <row r="139" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B139" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="C139" t="s">
+        <v>38</v>
+      </c>
+      <c r="D139" s="12">
+        <v>1.2670157068062826</v>
+      </c>
+    </row>
+    <row r="140" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B140" s="11"/>
+      <c r="C140" t="s">
+        <v>47</v>
+      </c>
+      <c r="D140" s="12">
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="141" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B141" s="11"/>
+      <c r="C141" t="s">
+        <v>17</v>
+      </c>
+      <c r="D141" s="12">
+        <v>0.625</v>
+      </c>
+    </row>
+    <row r="142" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B142" s="11"/>
+      <c r="C142" t="s">
+        <v>46</v>
+      </c>
+      <c r="D142" s="12">
+        <v>0.55758683729433267</v>
+      </c>
+    </row>
+    <row r="143" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B143" s="11"/>
+      <c r="C143" t="s">
+        <v>41</v>
+      </c>
+      <c r="D143" s="12">
+        <v>0.51573956667953025</v>
+      </c>
+    </row>
+    <row r="144" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B144" s="11"/>
+      <c r="C144" t="s">
+        <v>12</v>
+      </c>
+      <c r="D144" s="12">
+        <v>0.42405063291139239</v>
+      </c>
+    </row>
+    <row r="145" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B145" s="11"/>
+      <c r="C145" t="s">
+        <v>20</v>
+      </c>
+      <c r="D145" s="12">
+        <v>0.3125</v>
+      </c>
+    </row>
+    <row r="146" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B146" s="11"/>
+      <c r="C146" t="s">
+        <v>16</v>
+      </c>
+      <c r="D146" s="12">
+        <v>0.28157683024939661</v>
+      </c>
+    </row>
+    <row r="147" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B147" s="11"/>
+      <c r="C147" t="s">
+        <v>8</v>
+      </c>
+      <c r="D147" s="12">
+        <v>0.22014866360904634</v>
+      </c>
+    </row>
+    <row r="148" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B148" s="11"/>
+      <c r="C148" t="s">
+        <v>43</v>
+      </c>
+      <c r="D148" s="12">
+        <v>0.20893849303050979</v>
+      </c>
+    </row>
+    <row r="149" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B149" t="s">
+        <v>109</v>
+      </c>
+      <c r="D149" s="12">
+        <v>0.2453720525520644</v>
+      </c>
+    </row>
+    <row r="150" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B150" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C150" t="s">
+        <v>15</v>
+      </c>
+      <c r="D150" s="12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B151" s="11"/>
+      <c r="C151" t="s">
+        <v>14</v>
+      </c>
+      <c r="D151" s="12">
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="152" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B152" s="11"/>
+      <c r="C152" t="s">
+        <v>12</v>
+      </c>
+      <c r="D152" s="12">
+        <v>0.29629629629629628</v>
+      </c>
+    </row>
+    <row r="153" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B153" s="11"/>
+      <c r="C153" t="s">
+        <v>8</v>
+      </c>
+      <c r="D153" s="12">
+        <v>0.21501272264631044</v>
+      </c>
+    </row>
+    <row r="154" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B154" s="11"/>
+      <c r="C154" t="s">
+        <v>11</v>
+      </c>
+      <c r="D154" s="12">
+        <v>0.20982142857142858</v>
+      </c>
+    </row>
+    <row r="155" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B155" t="s">
+        <v>110</v>
+      </c>
+      <c r="D155" s="12">
+        <v>0.22706209453197404</v>
+      </c>
+    </row>
+    <row r="156" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B156" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C156" t="s">
+        <v>19</v>
+      </c>
+      <c r="D156" s="12">
+        <v>1.1926605504587156</v>
+      </c>
+    </row>
+    <row r="157" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B157" s="11"/>
+      <c r="C157" t="s">
+        <v>12</v>
+      </c>
+      <c r="D157" s="12">
+        <v>0.5272988505747126</v>
+      </c>
+    </row>
+    <row r="158" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B158" s="11"/>
+      <c r="C158" t="s">
+        <v>18</v>
+      </c>
+      <c r="D158" s="12">
+        <v>0.28205128205128205</v>
+      </c>
+    </row>
+    <row r="159" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B159" s="11"/>
+      <c r="C159" t="s">
+        <v>16</v>
+      </c>
+      <c r="D159" s="12">
+        <v>0.22686707374354156</v>
+      </c>
+    </row>
+    <row r="160" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B160" s="11"/>
+      <c r="C160" t="s">
+        <v>8</v>
+      </c>
+      <c r="D160" s="12">
+        <v>0.21446648225531165</v>
+      </c>
+    </row>
+    <row r="161" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B161" s="11"/>
+      <c r="C161" t="s">
+        <v>5</v>
+      </c>
+      <c r="D161" s="12">
+        <v>0.20728539359619916</v>
+      </c>
+    </row>
+    <row r="162" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B162" s="11"/>
+      <c r="C162" t="s">
+        <v>10</v>
+      </c>
+      <c r="D162" s="12">
+        <v>0.20358514724711907</v>
+      </c>
+    </row>
+    <row r="163" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B163" t="s">
+        <v>111</v>
+      </c>
+      <c r="D163" s="12">
+        <v>0.20949953448617958</v>
+      </c>
+    </row>
+    <row r="164" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B164" t="s">
+        <v>86</v>
+      </c>
+      <c r="D164" s="12">
+        <v>0.43232860474800039</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId4"/>
+  <drawing r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -11703,8 +13861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G191"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11715,7 +13873,7 @@
     <col min="4" max="4" width="18.42578125" customWidth="1"/>
     <col min="5" max="5" width="20.140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="17" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -11737,7 +13895,7 @@
       <c r="F1" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="13" t="s">
         <v>94</v>
       </c>
     </row>
@@ -11760,7 +13918,7 @@
       <c r="F2" s="3">
         <v>51258</v>
       </c>
-      <c r="G2" s="24">
+      <c r="G2" s="14">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.19507198876272971</v>
       </c>
@@ -11784,7 +13942,7 @@
       <c r="F3" s="3">
         <v>9978</v>
       </c>
-      <c r="G3" s="25">
+      <c r="G3" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -11808,7 +13966,7 @@
       <c r="F4" s="3">
         <v>9469</v>
       </c>
-      <c r="G4" s="25">
+      <c r="G4" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -11832,7 +13990,7 @@
       <c r="F5" s="3">
         <v>786</v>
       </c>
-      <c r="G5" s="25">
+      <c r="G5" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.21501272264631044</v>
       </c>
@@ -11856,7 +14014,7 @@
       <c r="F6" s="3">
         <v>323</v>
       </c>
-      <c r="G6" s="25">
+      <c r="G6" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.2879256965944276E-2</v>
       </c>
@@ -11880,7 +14038,7 @@
       <c r="F7" s="3">
         <v>257</v>
       </c>
-      <c r="G7" s="25">
+      <c r="G7" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.16731517509727625</v>
       </c>
@@ -11904,7 +14062,7 @@
       <c r="F8" s="3">
         <v>224</v>
       </c>
-      <c r="G8" s="25">
+      <c r="G8" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20982142857142858</v>
       </c>
@@ -11928,7 +14086,7 @@
       <c r="F9" s="3">
         <v>54</v>
       </c>
-      <c r="G9" s="25">
+      <c r="G9" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.29629629629629628</v>
       </c>
@@ -11952,7 +14110,7 @@
       <c r="F10" s="3">
         <v>21</v>
       </c>
-      <c r="G10" s="25">
+      <c r="G10" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -11976,7 +14134,7 @@
       <c r="F11" s="3">
         <v>12</v>
       </c>
-      <c r="G11" s="25">
+      <c r="G11" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.33333333333333331</v>
       </c>
@@ -12000,7 +14158,7 @@
       <c r="F12" s="3">
         <v>3</v>
       </c>
-      <c r="G12" s="25">
+      <c r="G12" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>3</v>
       </c>
@@ -12024,7 +14182,7 @@
       <c r="F13" s="3">
         <v>306037</v>
       </c>
-      <c r="G13" s="25">
+      <c r="G13" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20728539359619916</v>
       </c>
@@ -12048,7 +14206,7 @@
       <c r="F14" s="3">
         <v>35450</v>
       </c>
-      <c r="G14" s="25">
+      <c r="G14" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12072,7 +14230,7 @@
       <c r="F15" s="3">
         <v>19796</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12096,7 +14254,7 @@
       <c r="F16" s="3">
         <v>16991</v>
       </c>
-      <c r="G16" s="25">
+      <c r="G16" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.21446648225531165</v>
       </c>
@@ -12120,7 +14278,7 @@
       <c r="F17" s="3">
         <v>8004</v>
       </c>
-      <c r="G17" s="25">
+      <c r="G17" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.12306346826586706</v>
       </c>
@@ -12144,7 +14302,7 @@
       <c r="F18" s="3">
         <v>4590</v>
       </c>
-      <c r="G18" s="25">
+      <c r="G18" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>3.2679738562091505E-2</v>
       </c>
@@ -12168,7 +14326,7 @@
       <c r="F19" s="3">
         <v>3474</v>
       </c>
-      <c r="G19" s="25">
+      <c r="G19" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>2.0149683362118594E-2</v>
       </c>
@@ -12192,7 +14350,7 @@
       <c r="F20" s="3">
         <v>2129</v>
       </c>
-      <c r="G20" s="25">
+      <c r="G20" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.22686707374354156</v>
       </c>
@@ -12216,7 +14374,7 @@
       <c r="F21" s="3">
         <v>1392</v>
       </c>
-      <c r="G21" s="25">
+      <c r="G21" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.5272988505747126</v>
       </c>
@@ -12240,7 +14398,7 @@
       <c r="F22" s="3">
         <v>781</v>
       </c>
-      <c r="G22" s="25">
+      <c r="G22" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20358514724711907</v>
       </c>
@@ -12264,7 +14422,7 @@
       <c r="F23" s="3">
         <v>204</v>
       </c>
-      <c r="G23" s="25">
+      <c r="G23" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>8.3333333333333329E-2</v>
       </c>
@@ -12288,7 +14446,7 @@
       <c r="F24" s="3">
         <v>156</v>
       </c>
-      <c r="G24" s="25">
+      <c r="G24" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.28205128205128205</v>
       </c>
@@ -12312,7 +14470,7 @@
       <c r="F25" s="3">
         <v>149</v>
       </c>
-      <c r="G25" s="25">
+      <c r="G25" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12336,7 +14494,7 @@
       <c r="F26" s="3">
         <v>109</v>
       </c>
-      <c r="G26" s="25">
+      <c r="G26" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.1926605504587156</v>
       </c>
@@ -12360,7 +14518,7 @@
       <c r="F27" s="3">
         <v>16</v>
       </c>
-      <c r="G27" s="25">
+      <c r="G27" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12384,7 +14542,7 @@
       <c r="F28" s="3">
         <v>543088</v>
       </c>
-      <c r="G28" s="25">
+      <c r="G28" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.65744962142415231</v>
       </c>
@@ -12408,7 +14566,7 @@
       <c r="F29" s="3">
         <v>188259</v>
       </c>
-      <c r="G29" s="25">
+      <c r="G29" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>6.0161798373517338E-2</v>
       </c>
@@ -12432,7 +14590,7 @@
       <c r="F30" s="3">
         <v>37812</v>
       </c>
-      <c r="G30" s="25">
+      <c r="G30" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12456,7 +14614,7 @@
       <c r="F31" s="3">
         <v>18229</v>
       </c>
-      <c r="G31" s="25">
+      <c r="G31" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.1189862307312524</v>
       </c>
@@ -12480,7 +14638,7 @@
       <c r="F32" s="3">
         <v>13044</v>
       </c>
-      <c r="G32" s="25">
+      <c r="G32" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.1996320147194111E-4</v>
       </c>
@@ -12504,7 +14662,7 @@
       <c r="F33" s="3">
         <v>12583</v>
       </c>
-      <c r="G33" s="25">
+      <c r="G33" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12528,7 +14686,7 @@
       <c r="F34" s="3">
         <v>3679</v>
       </c>
-      <c r="G34" s="25">
+      <c r="G34" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12552,7 +14710,7 @@
       <c r="F35" s="3">
         <v>1779</v>
       </c>
-      <c r="G35" s="25">
+      <c r="G35" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.26082068577852724</v>
       </c>
@@ -12576,7 +14734,7 @@
       <c r="F36" s="3">
         <v>1240</v>
       </c>
-      <c r="G36" s="25">
+      <c r="G36" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>4.7580645161290319E-2</v>
       </c>
@@ -12600,7 +14758,7 @@
       <c r="F37" s="3">
         <v>1193</v>
       </c>
-      <c r="G37" s="25">
+      <c r="G37" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12624,7 +14782,7 @@
       <c r="F38" s="3">
         <v>1114</v>
       </c>
-      <c r="G38" s="25">
+      <c r="G38" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>6.4631956912028721E-2</v>
       </c>
@@ -12648,7 +14806,7 @@
       <c r="F39" s="3">
         <v>117</v>
       </c>
-      <c r="G39" s="25">
+      <c r="G39" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>6.8376068376068383E-2</v>
       </c>
@@ -12672,7 +14830,7 @@
       <c r="F40" s="3">
         <v>61</v>
       </c>
-      <c r="G40" s="25">
+      <c r="G40" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.22950819672131148</v>
       </c>
@@ -12696,7 +14854,7 @@
       <c r="F41" s="3">
         <v>22</v>
       </c>
-      <c r="G41" s="25">
+      <c r="G41" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12720,7 +14878,7 @@
       <c r="F42" s="3">
         <v>21</v>
       </c>
-      <c r="G42" s="25">
+      <c r="G42" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.5238095238095233E-2</v>
       </c>
@@ -12744,7 +14902,7 @@
       <c r="F43" s="3">
         <v>17</v>
       </c>
-      <c r="G43" s="25">
+      <c r="G43" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12768,7 +14926,7 @@
       <c r="F44" s="3">
         <v>11</v>
       </c>
-      <c r="G44" s="25">
+      <c r="G44" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.0909090909090912E-2</v>
       </c>
@@ -12792,7 +14950,7 @@
       <c r="F45" s="3">
         <v>5</v>
       </c>
-      <c r="G45" s="25">
+      <c r="G45" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12816,7 +14974,7 @@
       <c r="F46" s="3">
         <v>4</v>
       </c>
-      <c r="G46" s="25">
+      <c r="G46" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12840,7 +14998,7 @@
       <c r="F47" s="3">
         <v>179902</v>
       </c>
-      <c r="G47" s="25">
+      <c r="G47" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.11606874854087225</v>
       </c>
@@ -12864,7 +15022,7 @@
       <c r="F48" s="3">
         <v>60834</v>
       </c>
-      <c r="G48" s="25">
+      <c r="G48" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>3.2876352039977642E-5</v>
       </c>
@@ -12888,7 +15046,7 @@
       <c r="F49" s="3">
         <v>54029</v>
       </c>
-      <c r="G49" s="25">
+      <c r="G49" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -12912,7 +15070,7 @@
       <c r="F50" s="3">
         <v>18673</v>
       </c>
-      <c r="G50" s="25">
+      <c r="G50" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.40732608579232044</v>
       </c>
@@ -12936,7 +15094,7 @@
       <c r="F51" s="3">
         <v>7018</v>
       </c>
-      <c r="G51" s="25">
+      <c r="G51" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.7361071530350527</v>
       </c>
@@ -12960,7 +15118,7 @@
       <c r="F52" s="3">
         <v>1948</v>
       </c>
-      <c r="G52" s="25">
+      <c r="G52" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>5.6468172484599594E-3</v>
       </c>
@@ -12984,7 +15142,7 @@
       <c r="F53" s="3">
         <v>1284</v>
       </c>
-      <c r="G53" s="25">
+      <c r="G53" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>7.7881619937694702E-4</v>
       </c>
@@ -13008,7 +15166,7 @@
       <c r="F54" s="3">
         <v>924</v>
       </c>
-      <c r="G54" s="25">
+      <c r="G54" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>3.3549783549783552E-2</v>
       </c>
@@ -13032,7 +15190,7 @@
       <c r="F55" s="3">
         <v>678</v>
       </c>
-      <c r="G55" s="25">
+      <c r="G55" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.1799410029498525E-2</v>
       </c>
@@ -13056,7 +15214,7 @@
       <c r="F56" s="3">
         <v>667</v>
       </c>
-      <c r="G56" s="25">
+      <c r="G56" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.16191904047976011</v>
       </c>
@@ -13080,7 +15238,7 @@
       <c r="F57" s="3">
         <v>437</v>
       </c>
-      <c r="G57" s="25">
+      <c r="G57" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13104,7 +15262,7 @@
       <c r="F58" s="3">
         <v>264</v>
       </c>
-      <c r="G58" s="25">
+      <c r="G58" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14393939393939395</v>
       </c>
@@ -13128,7 +15286,7 @@
       <c r="F59" s="3">
         <v>257</v>
       </c>
-      <c r="G59" s="25">
+      <c r="G59" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>8.171206225680934E-2</v>
       </c>
@@ -13152,7 +15310,7 @@
       <c r="F60" s="3">
         <v>211</v>
       </c>
-      <c r="G60" s="25">
+      <c r="G60" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>3.3175355450236969E-2</v>
       </c>
@@ -13176,7 +15334,7 @@
       <c r="F61" s="3">
         <v>141</v>
       </c>
-      <c r="G61" s="25">
+      <c r="G61" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.1276595744680851</v>
       </c>
@@ -13200,7 +15358,7 @@
       <c r="F62" s="3">
         <v>59</v>
       </c>
-      <c r="G62" s="25">
+      <c r="G62" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>6.7796610169491525E-2</v>
       </c>
@@ -13224,7 +15382,7 @@
       <c r="F63" s="3">
         <v>47</v>
       </c>
-      <c r="G63" s="25">
+      <c r="G63" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13248,7 +15406,7 @@
       <c r="F64" s="3">
         <v>32</v>
       </c>
-      <c r="G64" s="25">
+      <c r="G64" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13272,7 +15430,7 @@
       <c r="F65" s="3">
         <v>19</v>
       </c>
-      <c r="G65" s="25">
+      <c r="G65" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1</v>
       </c>
@@ -13296,7 +15454,7 @@
       <c r="F66" s="3">
         <v>58159</v>
       </c>
-      <c r="G66" s="25">
+      <c r="G66" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>4.1953953816262317E-3</v>
       </c>
@@ -13320,7 +15478,7 @@
       <c r="F67" s="3">
         <v>43000</v>
       </c>
-      <c r="G67" s="25">
+      <c r="G67" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13344,7 +15502,7 @@
       <c r="F68" s="3">
         <v>16519</v>
       </c>
-      <c r="G68" s="25">
+      <c r="G68" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13368,7 +15526,7 @@
       <c r="F69" s="3">
         <v>14970</v>
       </c>
-      <c r="G69" s="25">
+      <c r="G69" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>6.6800267201068804E-5</v>
       </c>
@@ -13392,7 +15550,7 @@
       <c r="F70" s="3">
         <v>6994</v>
       </c>
-      <c r="G70" s="25">
+      <c r="G70" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>8.5787818129825569E-3</v>
       </c>
@@ -13416,7 +15574,7 @@
       <c r="F71" s="3">
         <v>4287</v>
       </c>
-      <c r="G71" s="25">
+      <c r="G71" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>7.9309540471191979E-3</v>
       </c>
@@ -13440,7 +15598,7 @@
       <c r="F72" s="3">
         <v>4247</v>
       </c>
-      <c r="G72" s="25">
+      <c r="G72" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.2950317871438662E-2</v>
       </c>
@@ -13464,7 +15622,7 @@
       <c r="F73" s="3">
         <v>945</v>
       </c>
-      <c r="G73" s="25">
+      <c r="G73" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13488,7 +15646,7 @@
       <c r="F74" s="3">
         <v>913300</v>
       </c>
-      <c r="G74" s="25">
+      <c r="G74" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.13771706996605715</v>
       </c>
@@ -13512,7 +15670,7 @@
       <c r="F75" s="3">
         <v>36654</v>
       </c>
-      <c r="G75" s="25">
+      <c r="G75" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13536,7 +15694,7 @@
       <c r="F76" s="3">
         <v>10002</v>
       </c>
-      <c r="G76" s="25">
+      <c r="G76" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>5.5988802239552091E-3</v>
       </c>
@@ -13560,7 +15718,7 @@
       <c r="F77" s="3">
         <v>4567</v>
       </c>
-      <c r="G77" s="25">
+      <c r="G77" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.0413838405955769</v>
       </c>
@@ -13584,7 +15742,7 @@
       <c r="F78" s="3">
         <v>4558</v>
       </c>
-      <c r="G78" s="25">
+      <c r="G78" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14545853444493198</v>
       </c>
@@ -13608,7 +15766,7 @@
       <c r="F79" s="3">
         <v>2081</v>
       </c>
-      <c r="G79" s="25">
+      <c r="G79" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.12061508889956751</v>
       </c>
@@ -13632,7 +15790,7 @@
       <c r="F80" s="3">
         <v>1288</v>
       </c>
-      <c r="G80" s="25">
+      <c r="G80" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.15993788819875776</v>
       </c>
@@ -13656,7 +15814,7 @@
       <c r="F81" s="3">
         <v>1088</v>
       </c>
-      <c r="G81" s="25">
+      <c r="G81" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13680,7 +15838,7 @@
       <c r="F82" s="3">
         <v>1075</v>
       </c>
-      <c r="G82" s="25">
+      <c r="G82" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.31813953488372093</v>
       </c>
@@ -13704,7 +15862,7 @@
       <c r="F83" s="3">
         <v>338</v>
       </c>
-      <c r="G83" s="25">
+      <c r="G83" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.37573964497041418</v>
       </c>
@@ -13728,7 +15886,7 @@
       <c r="F84" s="3">
         <v>205</v>
       </c>
-      <c r="G84" s="25">
+      <c r="G84" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.45853658536585368</v>
       </c>
@@ -13752,7 +15910,7 @@
       <c r="F85" s="3">
         <v>141</v>
       </c>
-      <c r="G85" s="25">
+      <c r="G85" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.19148936170212766</v>
       </c>
@@ -13776,7 +15934,7 @@
       <c r="F86" s="3">
         <v>32</v>
       </c>
-      <c r="G86" s="25">
+      <c r="G86" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.375E-2</v>
       </c>
@@ -13800,7 +15958,7 @@
       <c r="F87" s="3">
         <v>32</v>
       </c>
-      <c r="G87" s="25">
+      <c r="G87" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13824,7 +15982,7 @@
       <c r="F88" s="3">
         <v>29</v>
       </c>
-      <c r="G88" s="25">
+      <c r="G88" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20689655172413793</v>
       </c>
@@ -13848,7 +16006,7 @@
       <c r="F89" s="3">
         <v>18</v>
       </c>
-      <c r="G89" s="25">
+      <c r="G89" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.27777777777777779</v>
       </c>
@@ -13872,7 +16030,7 @@
       <c r="F90" s="3">
         <v>251</v>
       </c>
-      <c r="G90" s="25">
+      <c r="G90" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>7.9681274900398405E-3</v>
       </c>
@@ -13896,7 +16054,7 @@
       <c r="F91" s="3">
         <v>64</v>
       </c>
-      <c r="G91" s="25">
+      <c r="G91" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13920,7 +16078,7 @@
       <c r="F92" s="3">
         <v>48</v>
       </c>
-      <c r="G92" s="25">
+      <c r="G92" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13944,7 +16102,7 @@
       <c r="F93" s="3">
         <v>40</v>
       </c>
-      <c r="G93" s="25">
+      <c r="G93" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -13968,7 +16126,7 @@
       <c r="F94" s="3">
         <v>126460</v>
       </c>
-      <c r="G94" s="25">
+      <c r="G94" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.22014866360904634</v>
       </c>
@@ -13992,7 +16150,7 @@
       <c r="F95" s="3">
         <v>61554</v>
       </c>
-      <c r="G95" s="25">
+      <c r="G95" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20893849303050979</v>
       </c>
@@ -14016,7 +16174,7 @@
       <c r="F96" s="3">
         <v>32303</v>
       </c>
-      <c r="G96" s="25">
+      <c r="G96" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.1068940965235427</v>
       </c>
@@ -14040,7 +16198,7 @@
       <c r="F97" s="3">
         <v>18139</v>
       </c>
-      <c r="G97" s="25">
+      <c r="G97" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.51573956667953025</v>
       </c>
@@ -14064,7 +16222,7 @@
       <c r="F98" s="3">
         <v>15614</v>
       </c>
-      <c r="G98" s="25">
+      <c r="G98" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.13782502882028949</v>
       </c>
@@ -14088,7 +16246,7 @@
       <c r="F99" s="3">
         <v>8965</v>
       </c>
-      <c r="G99" s="25">
+      <c r="G99" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.11411042944785275</v>
       </c>
@@ -14112,7 +16270,7 @@
       <c r="F100" s="3">
         <v>1243</v>
       </c>
-      <c r="G100" s="25">
+      <c r="G100" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.28157683024939661</v>
       </c>
@@ -14136,7 +16294,7 @@
       <c r="F101" s="3">
         <v>950</v>
       </c>
-      <c r="G101" s="25">
+      <c r="G101" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>5.263157894736842E-3</v>
       </c>
@@ -14160,7 +16318,7 @@
       <c r="F102" s="3">
         <v>784</v>
       </c>
-      <c r="G102" s="25">
+      <c r="G102" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.3125</v>
       </c>
@@ -14184,7 +16342,7 @@
       <c r="F103" s="3">
         <v>681</v>
       </c>
-      <c r="G103" s="25">
+      <c r="G103" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14208,7 +16366,7 @@
       <c r="F104" s="3">
         <v>660</v>
       </c>
-      <c r="G104" s="25">
+      <c r="G104" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14232,7 +16390,7 @@
       <c r="F105" s="3">
         <v>571</v>
       </c>
-      <c r="G105" s="25">
+      <c r="G105" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.11558669001751314</v>
       </c>
@@ -14256,7 +16414,7 @@
       <c r="F106" s="3">
         <v>547</v>
       </c>
-      <c r="G106" s="25">
+      <c r="G106" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.55758683729433267</v>
       </c>
@@ -14280,7 +16438,7 @@
       <c r="F107" s="3">
         <v>271</v>
       </c>
-      <c r="G107" s="25">
+      <c r="G107" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>2.2140221402214021E-2</v>
       </c>
@@ -14304,7 +16462,7 @@
       <c r="F108" s="3">
         <v>191</v>
       </c>
-      <c r="G108" s="25">
+      <c r="G108" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.2670157068062826</v>
       </c>
@@ -14328,7 +16486,7 @@
       <c r="F109" s="3">
         <v>166</v>
       </c>
-      <c r="G109" s="25">
+      <c r="G109" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.15662650602409639</v>
       </c>
@@ -14352,7 +16510,7 @@
       <c r="F110" s="3">
         <v>158</v>
       </c>
-      <c r="G110" s="25">
+      <c r="G110" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.42405063291139239</v>
       </c>
@@ -14376,7 +16534,7 @@
       <c r="F111" s="3">
         <v>136</v>
       </c>
-      <c r="G111" s="25">
+      <c r="G111" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>2.9411764705882353E-2</v>
       </c>
@@ -14400,7 +16558,7 @@
       <c r="F112" s="3">
         <v>72</v>
       </c>
-      <c r="G112" s="25">
+      <c r="G112" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.66666666666666663</v>
       </c>
@@ -14424,7 +16582,7 @@
       <c r="F113" s="3">
         <v>68</v>
       </c>
-      <c r="G113" s="25">
+      <c r="G113" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14448,7 +16606,7 @@
       <c r="F114" s="3">
         <v>16</v>
       </c>
-      <c r="G114" s="25">
+      <c r="G114" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.625</v>
       </c>
@@ -14472,7 +16630,7 @@
       <c r="F115" s="3">
         <v>15</v>
       </c>
-      <c r="G115" s="25">
+      <c r="G115" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.13333333333333333</v>
       </c>
@@ -14496,7 +16654,7 @@
       <c r="F116" s="3">
         <v>14</v>
       </c>
-      <c r="G116" s="25">
+      <c r="G116" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14520,7 +16678,7 @@
       <c r="F117" s="3">
         <v>757680</v>
       </c>
-      <c r="G117" s="25">
+      <c r="G117" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14928729806778587</v>
       </c>
@@ -14544,7 +16702,7 @@
       <c r="F118" s="3">
         <v>611481</v>
       </c>
-      <c r="G118" s="25">
+      <c r="G118" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.39060412343147211</v>
       </c>
@@ -14568,7 +16726,7 @@
       <c r="F119" s="3">
         <v>249672</v>
       </c>
-      <c r="G119" s="25">
+      <c r="G119" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14592,7 +16750,7 @@
       <c r="F120" s="3">
         <v>166853</v>
       </c>
-      <c r="G120" s="25">
+      <c r="G120" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.45030056396948209</v>
       </c>
@@ -14616,7 +16774,7 @@
       <c r="F121" s="3">
         <v>23848</v>
       </c>
-      <c r="G121" s="25">
+      <c r="G121" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14640,7 +16798,7 @@
       <c r="F122" s="3">
         <v>19584</v>
       </c>
-      <c r="G122" s="25">
+      <c r="G122" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.86366421568627449</v>
       </c>
@@ -14664,7 +16822,7 @@
       <c r="F123" s="3">
         <v>18759</v>
       </c>
-      <c r="G123" s="25">
+      <c r="G123" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.0661549123087585E-4</v>
       </c>
@@ -14688,7 +16846,7 @@
       <c r="F124" s="3">
         <v>15123</v>
       </c>
-      <c r="G124" s="25">
+      <c r="G124" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.37816570786219667</v>
       </c>
@@ -14712,7 +16870,7 @@
       <c r="F125" s="3">
         <v>7383</v>
       </c>
-      <c r="G125" s="25">
+      <c r="G125" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.51537315454422317</v>
       </c>
@@ -14736,7 +16894,7 @@
       <c r="F126" s="3">
         <v>6844</v>
       </c>
-      <c r="G126" s="25">
+      <c r="G126" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.29894798363530101</v>
       </c>
@@ -14760,7 +16918,7 @@
       <c r="F127" s="3">
         <v>6535</v>
       </c>
-      <c r="G127" s="25">
+      <c r="G127" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -14784,7 +16942,7 @@
       <c r="F128" s="3">
         <v>4718</v>
       </c>
-      <c r="G128" s="25">
+      <c r="G128" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.0243747350572276</v>
       </c>
@@ -14808,7 +16966,7 @@
       <c r="F129" s="3">
         <v>4116</v>
       </c>
-      <c r="G129" s="25">
+      <c r="G129" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.26749271137026237</v>
       </c>
@@ -14832,7 +16990,7 @@
       <c r="F130" s="3">
         <v>4007</v>
       </c>
-      <c r="G130" s="25">
+      <c r="G130" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20114799101572248</v>
       </c>
@@ -14856,7 +17014,7 @@
       <c r="F131" s="3">
         <v>1947</v>
       </c>
-      <c r="G131" s="25">
+      <c r="G131" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.15459681561376476</v>
       </c>
@@ -14880,7 +17038,7 @@
       <c r="F132" s="3">
         <v>1029</v>
       </c>
-      <c r="G132" s="25">
+      <c r="G132" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14868804664723032</v>
       </c>
@@ -14904,7 +17062,7 @@
       <c r="F133" s="3">
         <v>950</v>
       </c>
-      <c r="G133" s="25">
+      <c r="G133" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.18</v>
       </c>
@@ -14928,7 +17086,7 @@
       <c r="F134" s="3">
         <v>848</v>
       </c>
-      <c r="G134" s="25">
+      <c r="G134" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.67452830188679247</v>
       </c>
@@ -14952,7 +17110,7 @@
       <c r="F135" s="3">
         <v>777</v>
       </c>
-      <c r="G135" s="25">
+      <c r="G135" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>2.5740025740025738E-2</v>
       </c>
@@ -14976,7 +17134,7 @@
       <c r="F136" s="3">
         <v>492</v>
       </c>
-      <c r="G136" s="25">
+      <c r="G136" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.2073170731707317</v>
       </c>
@@ -15000,7 +17158,7 @@
       <c r="F137" s="3">
         <v>422</v>
       </c>
-      <c r="G137" s="25">
+      <c r="G137" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.15876777251184834</v>
       </c>
@@ -15024,7 +17182,7 @@
       <c r="F138" s="3">
         <v>244</v>
       </c>
-      <c r="G138" s="25">
+      <c r="G138" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15048,7 +17206,7 @@
       <c r="F139" s="3">
         <v>240</v>
       </c>
-      <c r="G139" s="25">
+      <c r="G139" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>8.3333333333333332E-3</v>
       </c>
@@ -15072,7 +17230,7 @@
       <c r="F140" s="3">
         <v>229</v>
       </c>
-      <c r="G140" s="25">
+      <c r="G140" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.35371179039301309</v>
       </c>
@@ -15096,7 +17254,7 @@
       <c r="F141" s="3">
         <v>172</v>
       </c>
-      <c r="G141" s="25">
+      <c r="G141" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.55232558139534882</v>
       </c>
@@ -15120,7 +17278,7 @@
       <c r="F142" s="3">
         <v>166</v>
       </c>
-      <c r="G142" s="25">
+      <c r="G142" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.1746987951807229</v>
       </c>
@@ -15144,7 +17302,7 @@
       <c r="F143" s="3">
         <v>152</v>
       </c>
-      <c r="G143" s="25">
+      <c r="G143" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.25657894736842107</v>
       </c>
@@ -15168,7 +17326,7 @@
       <c r="F144" s="3">
         <v>99</v>
       </c>
-      <c r="G144" s="25">
+      <c r="G144" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>7.0707070707070704E-2</v>
       </c>
@@ -15192,7 +17350,7 @@
       <c r="F145" s="3">
         <v>59</v>
       </c>
-      <c r="G145" s="25">
+      <c r="G145" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15216,7 +17374,7 @@
       <c r="F146" s="3">
         <v>58</v>
       </c>
-      <c r="G146" s="25">
+      <c r="G146" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.89655172413793105</v>
       </c>
@@ -15240,7 +17398,7 @@
       <c r="F147" s="3">
         <v>50</v>
       </c>
-      <c r="G147" s="25">
+      <c r="G147" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15264,7 +17422,7 @@
       <c r="F148" s="3">
         <v>445655</v>
       </c>
-      <c r="G148" s="25">
+      <c r="G148" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14606141522029373</v>
       </c>
@@ -15288,7 +17446,7 @@
       <c r="F149" s="3">
         <v>247583</v>
       </c>
-      <c r="G149" s="25">
+      <c r="G149" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15312,7 +17470,7 @@
       <c r="F150" s="3">
         <v>38324</v>
       </c>
-      <c r="G150" s="25">
+      <c r="G150" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>8.5559962425634073E-2</v>
       </c>
@@ -15336,7 +17494,7 @@
       <c r="F151" s="3">
         <v>11743</v>
       </c>
-      <c r="G151" s="25">
+      <c r="G151" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.1288427148088228E-2</v>
       </c>
@@ -15360,7 +17518,7 @@
       <c r="F152" s="3">
         <v>902</v>
       </c>
-      <c r="G152" s="25">
+      <c r="G152" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>2.4390243902439025E-2</v>
       </c>
@@ -15384,7 +17542,7 @@
       <c r="F153" s="3">
         <v>838</v>
       </c>
-      <c r="G153" s="25">
+      <c r="G153" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15408,7 +17566,7 @@
       <c r="F154" s="3">
         <v>732</v>
       </c>
-      <c r="G154" s="25">
+      <c r="G154" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.2295081967213115E-2</v>
       </c>
@@ -15432,7 +17590,7 @@
       <c r="F155" s="3">
         <v>726</v>
       </c>
-      <c r="G155" s="25">
+      <c r="G155" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.6528925619834711E-2</v>
       </c>
@@ -15456,7 +17614,7 @@
       <c r="F156" s="3">
         <v>623</v>
       </c>
-      <c r="G156" s="25">
+      <c r="G156" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14125200642054575</v>
       </c>
@@ -15480,7 +17638,7 @@
       <c r="F157" s="3">
         <v>258</v>
       </c>
-      <c r="G157" s="25">
+      <c r="G157" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.1627906976744186E-2</v>
       </c>
@@ -15504,7 +17662,7 @@
       <c r="F158" s="3">
         <v>159</v>
       </c>
-      <c r="G158" s="25">
+      <c r="G158" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15528,7 +17686,7 @@
       <c r="F159" s="3">
         <v>137</v>
       </c>
-      <c r="G159" s="25">
+      <c r="G159" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>9.4890510948905105E-2</v>
       </c>
@@ -15552,7 +17710,7 @@
       <c r="F160" s="3">
         <v>106</v>
       </c>
-      <c r="G160" s="25">
+      <c r="G160" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.45283018867924529</v>
       </c>
@@ -15576,7 +17734,7 @@
       <c r="F161" s="3">
         <v>86</v>
       </c>
-      <c r="G161" s="25">
+      <c r="G161" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.44186046511627908</v>
       </c>
@@ -15600,7 +17758,7 @@
       <c r="F162" s="3">
         <v>85</v>
       </c>
-      <c r="G162" s="25">
+      <c r="G162" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.14117647058823529</v>
       </c>
@@ -15624,7 +17782,7 @@
       <c r="F163" s="3">
         <v>65</v>
       </c>
-      <c r="G163" s="25">
+      <c r="G163" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.23076923076923078</v>
       </c>
@@ -15648,7 +17806,7 @@
       <c r="F164" s="3">
         <v>55</v>
       </c>
-      <c r="G164" s="25">
+      <c r="G164" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.16363636363636364</v>
       </c>
@@ -15672,7 +17830,7 @@
       <c r="F165" s="3">
         <v>52</v>
       </c>
-      <c r="G165" s="25">
+      <c r="G165" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>1.9230769230769232E-2</v>
       </c>
@@ -15696,7 +17854,7 @@
       <c r="F166" s="3">
         <v>46</v>
       </c>
-      <c r="G166" s="25">
+      <c r="G166" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>2.1739130434782608E-2</v>
       </c>
@@ -15720,7 +17878,7 @@
       <c r="F167" s="3">
         <v>42</v>
       </c>
-      <c r="G167" s="25">
+      <c r="G167" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.11904761904761904</v>
       </c>
@@ -15744,7 +17902,7 @@
       <c r="F168" s="3">
         <v>42</v>
       </c>
-      <c r="G168" s="25">
+      <c r="G168" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.11904761904761904</v>
       </c>
@@ -15768,7 +17926,7 @@
       <c r="F169" s="3">
         <v>39</v>
       </c>
-      <c r="G169" s="25">
+      <c r="G169" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>7.6923076923076927E-2</v>
       </c>
@@ -15792,7 +17950,7 @@
       <c r="F170" s="3">
         <v>38</v>
       </c>
-      <c r="G170" s="25">
+      <c r="G170" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.21052631578947367</v>
       </c>
@@ -15816,7 +17974,7 @@
       <c r="F171" s="3">
         <v>33</v>
       </c>
-      <c r="G171" s="25">
+      <c r="G171" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.27272727272727271</v>
       </c>
@@ -15840,7 +17998,7 @@
       <c r="F172" s="3">
         <v>32</v>
       </c>
-      <c r="G172" s="25">
+      <c r="G172" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.1875</v>
       </c>
@@ -15864,7 +18022,7 @@
       <c r="F173" s="3">
         <v>32</v>
       </c>
-      <c r="G173" s="25">
+      <c r="G173" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15888,7 +18046,7 @@
       <c r="F174" s="3">
         <v>31</v>
       </c>
-      <c r="G174" s="25">
+      <c r="G174" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15912,7 +18070,7 @@
       <c r="F175" s="3">
         <v>27</v>
       </c>
-      <c r="G175" s="25">
+      <c r="G175" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>7.407407407407407E-2</v>
       </c>
@@ -15936,7 +18094,7 @@
       <c r="F176" s="3">
         <v>26</v>
       </c>
-      <c r="G176" s="25">
+      <c r="G176" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.53846153846153844</v>
       </c>
@@ -15960,7 +18118,7 @@
       <c r="F177" s="3">
         <v>25</v>
       </c>
-      <c r="G177" s="25">
+      <c r="G177" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -15984,7 +18142,7 @@
       <c r="F178" s="3">
         <v>24</v>
       </c>
-      <c r="G178" s="25">
+      <c r="G178" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.20833333333333334</v>
       </c>
@@ -16008,7 +18166,7 @@
       <c r="F179" s="3">
         <v>23</v>
       </c>
-      <c r="G179" s="25">
+      <c r="G179" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.47826086956521741</v>
       </c>
@@ -16032,7 +18190,7 @@
       <c r="F180" s="3">
         <v>22</v>
       </c>
-      <c r="G180" s="25">
+      <c r="G180" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.22727272727272727</v>
       </c>
@@ -16056,7 +18214,7 @@
       <c r="F181" s="3">
         <v>21</v>
       </c>
-      <c r="G181" s="25">
+      <c r="G181" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>4.7619047619047616E-2</v>
       </c>
@@ -16080,7 +18238,7 @@
       <c r="F182" s="3">
         <v>16</v>
       </c>
-      <c r="G182" s="25">
+      <c r="G182" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.375</v>
       </c>
@@ -16104,7 +18262,7 @@
       <c r="F183" s="3">
         <v>16</v>
       </c>
-      <c r="G183" s="25">
+      <c r="G183" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>6.25E-2</v>
       </c>
@@ -16128,7 +18286,7 @@
       <c r="F184" s="3">
         <v>11</v>
       </c>
-      <c r="G184" s="25">
+      <c r="G184" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.27272727272727271</v>
       </c>
@@ -16152,7 +18310,7 @@
       <c r="F185" s="3">
         <v>11</v>
       </c>
-      <c r="G185" s="25">
+      <c r="G185" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.81818181818181823</v>
       </c>
@@ -16176,7 +18334,7 @@
       <c r="F186" s="3">
         <v>10</v>
       </c>
-      <c r="G186" s="25">
+      <c r="G186" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -16200,7 +18358,7 @@
       <c r="F187" s="3">
         <v>10</v>
       </c>
-      <c r="G187" s="25">
+      <c r="G187" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.1</v>
       </c>
@@ -16224,7 +18382,7 @@
       <c r="F188" s="3">
         <v>7</v>
       </c>
-      <c r="G188" s="25">
+      <c r="G188" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.2857142857142857</v>
       </c>
@@ -16248,7 +18406,7 @@
       <c r="F189" s="3">
         <v>6</v>
       </c>
-      <c r="G189" s="25">
+      <c r="G189" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0</v>
       </c>
@@ -16272,7 +18430,7 @@
       <c r="F190" s="3">
         <v>5</v>
       </c>
-      <c r="G190" s="25">
+      <c r="G190" s="15">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.4</v>
       </c>
@@ -16296,7 +18454,7 @@
       <c r="F191" s="9">
         <v>4</v>
       </c>
-      <c r="G191" s="26">
+      <c r="G191" s="16">
         <f>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</f>
         <v>0.25</v>
       </c>

--- a/Analise Git e Base de Dados.xlsx
+++ b/Analise Git e Base de Dados.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Caio\Desktop\Analise Git\AnaliseGIT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pichau\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BC777085-3FCD-4A9B-A934-87391A83843A}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="16620" windowHeight="9810" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="12225" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Dados Recolhidos" sheetId="1" r:id="rId1"/>
@@ -18,10 +19,10 @@
     <sheet name="Analise Fase II" sheetId="4" r:id="rId4"/>
     <sheet name="Base de Dados Analise II" sheetId="5" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <pivotCaches>
     <pivotCache cacheId="0" r:id="rId6"/>
-    <pivotCache cacheId="5" r:id="rId7"/>
+    <pivotCache cacheId="1" r:id="rId7"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -32,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1399" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1411" uniqueCount="121">
   <si>
     <t>files</t>
   </si>
@@ -649,12 +650,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="172" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -683,8 +684,16 @@
       <name val="Calibri"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,8 +712,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -903,13 +918,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -929,6 +953,10 @@
     <xf numFmtId="10" fontId="0" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -959,32 +987,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Porcentagem" xfId="1" builtinId="5"/>
     <cellStyle name="Vírgula" xfId="2" builtinId="3"/>
   </cellStyles>
-  <dxfs count="53">
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
+  <dxfs count="50">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
@@ -1137,13 +1147,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1153,6 +1156,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1190,6 +1200,12 @@
         <top/>
         <bottom/>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="14" formatCode="0.00%"/>
@@ -1379,7 +1395,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1394,7 +1410,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1403,7 +1419,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1418,7 +1434,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1427,7 +1443,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1442,7 +1458,7 @@
       <numFmt numFmtId="14" formatCode="0.00%"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="164" formatCode="0.0%"/>
+      <numFmt numFmtId="165" formatCode="0.0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="13" formatCode="0%"/>
@@ -1479,7 +1495,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1793,7 +1808,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1895,7 +1909,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2021,7 +2034,6 @@
         </c:marker>
         <c:dLbl>
           <c:idx val="0"/>
-          <c:layout/>
           <c:spPr>
             <a:noFill/>
             <a:ln>
@@ -2059,9 +2071,7 @@
           <c:showPercent val="1"/>
           <c:showBubbleSize val="0"/>
           <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-              <c15:layout/>
-            </c:ext>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
           </c:extLst>
         </c:dLbl>
       </c:pivotFmt>
@@ -3029,9 +3039,7 @@
               </c:spPr>
             </c:leaderLines>
             <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:layout/>
-              </c:ext>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
             </c:extLst>
           </c:dLbls>
           <c:cat>
@@ -3139,7 +3147,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3241,7 +3248,6 @@
   </c:pivotSource>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3884,7 +3890,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3964,6 +3969,377 @@
       </c16:pivotOptions16>
     </c:ext>
   </c:extLst>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="pt-BR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cobertura</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> de documentação por repositorio</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="pt-BR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.8682065965530534E-2"/>
+          <c:y val="8.4319401376160341E-2"/>
+          <c:w val="0.93849742121395663"/>
+          <c:h val="0.76291387693677482"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Analise Fase II'!$I$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Cobertura de Documentacao</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Analise Fase II'!$H$25:$H$34</c:f>
+              <c:strCache>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>Tensorflow</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>React Native</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>VsCode</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Font Awesome</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Moby</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Angular</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Ansible</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Angular Cli</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Cli</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>PatchWork</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Analise Fase II'!$I$25:$I$34</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.24363401708656748</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.21537365808782616</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>9.3243474265687937E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6421496636959249E-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.13564887718780244</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.17494828164837531</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.45140451282899458</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.14252952959867377</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.10359961395621579</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.9627791563275434E-3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4439-467C-BA1C-7579965E1DC5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="459691472"/>
+        <c:axId val="458333072"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="459691472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="458333072"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="458333072"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="pt-BR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459691472"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="pt-BR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.78740157499999996" l="0.511811024" r="0.511811024" t="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+    <c:pageSetup paperSize="9" orientation="landscape"/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
@@ -4048,6 +4424,46 @@
 </file>
 
 <file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5597,6 +6013,509 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
@@ -5614,7 +6533,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Imagem 2"/>
+        <xdr:cNvPr id="3" name="Imagem 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5657,7 +6582,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Gráfico 3"/>
+        <xdr:cNvPr id="4" name="Gráfico 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5687,7 +6618,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Gráfico 4"/>
+        <xdr:cNvPr id="5" name="Gráfico 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5717,7 +6654,13 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0100-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -5735,8 +6678,151 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>185736</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Gráfico 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C2D07A6-2110-4679-B69F-47CB13401BBF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="4" name="Conector de Seta Reta 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7480D968-C13F-41AB-AC1F-9AC0B60CEBA3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4152900" y="8382000"/>
+          <a:ext cx="10410825" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.40385</cdr:x>
+      <cdr:y>0.93862</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.48776</cdr:x>
+      <cdr:y>0.98977</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="CaixaDeTexto 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F8B6271-51FA-4FDC-9417-6429B16278F1}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" flipH="1">
+          <a:off x="4400550" y="5243513"/>
+          <a:ext cx="914400" cy="285749"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="pt-BR" sz="1100"/>
+            <a:t>Popularidade</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Caio" refreshedDate="43368.037623263888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="190">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Caio" refreshedDate="43368.037623263888" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="190" xr:uid="{00000000-000A-0000-FFFF-FFFF00000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela1"/>
   </cacheSource>
@@ -5853,7 +6939,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" refreshedBy="Caio" refreshedDate="43427.43493333333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="190">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Caio" refreshedDate="43427.43493333333" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="190" xr:uid="{00000000-000A-0000-FFFF-FFFF05000000}">
   <cacheSource type="worksheet">
     <worksheetSource name="Tabela13"/>
   </cacheSource>
@@ -9717,782 +10803,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="3">
-  <location ref="B20:C32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
-      <items count="68">
-        <item x="33"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="34"/>
-        <item x="23"/>
-        <item x="36"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="46"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item x="50"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="62"/>
-        <item x="20"/>
-        <item x="41"/>
-        <item x="52"/>
-        <item x="29"/>
-        <item x="58"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="59"/>
-        <item x="43"/>
-        <item x="31"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="48"/>
-        <item x="45"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="53"/>
-        <item x="17"/>
-        <item x="42"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="16"/>
-        <item x="63"/>
-        <item x="55"/>
-        <item x="51"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="66"/>
-        <item x="64"/>
-        <item x="47"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="0"/>
-        <item x="21"/>
-        <item x="37"/>
-        <item x="61"/>
-        <item x="35"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="5"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="36">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="35">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="34">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="33">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="32">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="31">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="30">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="29">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="2">
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0.2"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
-  <location ref="B3:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="4"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colFields count="1">
-    <field x="-2"/>
-  </colFields>
-  <colItems count="5">
-    <i>
-      <x/>
-    </i>
-    <i i="1">
-      <x v="1"/>
-    </i>
-    <i i="2">
-      <x v="2"/>
-    </i>
-    <i i="3">
-      <x v="3"/>
-    </i>
-    <i i="4">
-      <x v="4"/>
-    </i>
-  </colItems>
-  <dataFields count="5">
-    <dataField name="Arquivos" fld="1" baseField="0" baseItem="0"/>
-    <dataField name="Linguagens" fld="2" subtotal="count" baseField="0" baseItem="0"/>
-    <dataField name="Linhas Comentadas" fld="4" baseField="0" baseItem="0"/>
-    <dataField name="Linhas de Código" fld="5" baseField="0" baseItem="0"/>
-    <dataField name="Cobertura de Doc." fld="7" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <chartFormats count="5">
-    <chartFormat chart="0" format="5" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="7" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="8" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="0" format="9" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
-  <location ref="B60:C72" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
-  <pivotFields count="8">
-    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
-      <items count="10">
-        <item x="9"/>
-        <item x="8"/>
-        <item x="7"/>
-        <item x="6"/>
-        <item x="5"/>
-        <item x="4"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
-      <items count="68">
-        <item x="33"/>
-        <item x="12"/>
-        <item x="11"/>
-        <item x="34"/>
-        <item x="23"/>
-        <item x="36"/>
-        <item x="30"/>
-        <item x="54"/>
-        <item x="46"/>
-        <item x="28"/>
-        <item x="10"/>
-        <item x="50"/>
-        <item x="67"/>
-        <item x="13"/>
-        <item x="25"/>
-        <item x="6"/>
-        <item x="62"/>
-        <item x="20"/>
-        <item x="41"/>
-        <item x="52"/>
-        <item x="29"/>
-        <item x="58"/>
-        <item x="4"/>
-        <item x="18"/>
-        <item x="44"/>
-        <item x="38"/>
-        <item x="3"/>
-        <item x="2"/>
-        <item x="59"/>
-        <item x="43"/>
-        <item x="31"/>
-        <item x="27"/>
-        <item x="65"/>
-        <item x="19"/>
-        <item x="1"/>
-        <item x="48"/>
-        <item x="45"/>
-        <item x="39"/>
-        <item x="40"/>
-        <item x="14"/>
-        <item x="49"/>
-        <item x="53"/>
-        <item x="17"/>
-        <item x="42"/>
-        <item x="32"/>
-        <item x="60"/>
-        <item x="16"/>
-        <item x="63"/>
-        <item x="55"/>
-        <item x="51"/>
-        <item x="57"/>
-        <item x="56"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="66"/>
-        <item x="64"/>
-        <item x="47"/>
-        <item x="22"/>
-        <item x="24"/>
-        <item x="0"/>
-        <item x="21"/>
-        <item x="37"/>
-        <item x="61"/>
-        <item x="35"/>
-        <item x="26"/>
-        <item x="8"/>
-        <item x="15"/>
-        <item x="5"/>
-      </items>
-      <autoSortScope>
-        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
-          <references count="1">
-            <reference field="4294967294" count="1" selected="0">
-              <x v="0"/>
-            </reference>
-          </references>
-        </pivotArea>
-      </autoSortScope>
-    </pivotField>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
-    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="11">
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <formats count="8">
-    <format dxfId="44">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="43">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="42">
-      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
-    </format>
-    <format dxfId="41">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="40">
-      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="39">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="38">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-    <format dxfId="37">
-      <pivotArea outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="0" count="0" selected="0"/>
-        </references>
-      </pivotArea>
-    </format>
-  </formats>
-  <chartFormats count="13">
-    <chartFormat chart="1" format="6" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="2" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="12" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="13">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="7"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="14">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="15">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="16">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="9"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="17">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="8"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="18">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="19">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="6"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="20">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="21">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="22">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="0" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <filters count="1">
-    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
-      <autoFilter ref="A1">
-        <filterColumn colId="0">
-          <customFilters>
-            <customFilter operator="greaterThan" val="0.2"/>
-          </customFilters>
-        </filterColumn>
-      </autoFilter>
-    </filter>
-  </filters>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000003000000}" name="Tabela dinâmica3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="7">
   <location ref="B90:D164" firstHeaderRow="2" firstDataRow="2" firstDataCol="2"/>
   <pivotFields count="8">
     <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -10847,44 +11158,44 @@
     <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="8">
-    <format dxfId="52">
+    <format dxfId="33">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="51">
+    <format dxfId="32">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="50">
+    <format dxfId="31">
       <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
     </format>
-    <format dxfId="49">
+    <format dxfId="30">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="48">
+    <format dxfId="29">
       <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="47">
+    <format dxfId="28">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="46">
+    <format dxfId="27">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
         </references>
       </pivotArea>
     </format>
-    <format dxfId="45">
+    <format dxfId="26">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="0" count="0" selected="0"/>
@@ -10946,12 +11257,799 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000001000000}" name="Tabela dinâmica14" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="3">
+  <location ref="B20:C32" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="10">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="68">
+        <item x="33"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="46"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item x="50"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="62"/>
+        <item x="20"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="29"/>
+        <item x="58"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="16"/>
+        <item x="63"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="5"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="41">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="40">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="39">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="38">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="37">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="36">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="35">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="34">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="2">
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0.2"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000000000000}" name="Tabela dinâmica1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="B3:G15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="10">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="4"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colFields count="1">
+    <field x="-2"/>
+  </colFields>
+  <colItems count="5">
+    <i>
+      <x/>
+    </i>
+    <i i="1">
+      <x v="1"/>
+    </i>
+    <i i="2">
+      <x v="2"/>
+    </i>
+    <i i="3">
+      <x v="3"/>
+    </i>
+    <i i="4">
+      <x v="4"/>
+    </i>
+  </colItems>
+  <dataFields count="5">
+    <dataField name="Arquivos" fld="1" baseField="0" baseItem="0"/>
+    <dataField name="Linguagens" fld="2" subtotal="count" baseField="0" baseItem="0"/>
+    <dataField name="Linhas Comentadas" fld="4" baseField="0" baseItem="0"/>
+    <dataField name="Linhas de Código" fld="5" baseField="0" baseItem="0"/>
+    <dataField name="Cobertura de Doc." fld="7" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <chartFormats count="5">
+    <chartFormat chart="0" format="5" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="7" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="8" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="0" format="9" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0100-000002000000}" name="Tabela dinâmica16" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0" chartFormat="6">
+  <location ref="B60:C72" firstHeaderRow="2" firstDataRow="2" firstDataCol="1"/>
+  <pivotFields count="8">
+    <pivotField name="Repositórios" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending" defaultSubtotal="0">
+      <items count="10">
+        <item x="9"/>
+        <item x="8"/>
+        <item x="7"/>
+        <item x="6"/>
+        <item x="5"/>
+        <item x="4"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" measureFilter="1" sortType="descending" defaultSubtotal="0">
+      <items count="68">
+        <item x="33"/>
+        <item x="12"/>
+        <item x="11"/>
+        <item x="34"/>
+        <item x="23"/>
+        <item x="36"/>
+        <item x="30"/>
+        <item x="54"/>
+        <item x="46"/>
+        <item x="28"/>
+        <item x="10"/>
+        <item x="50"/>
+        <item x="67"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item x="6"/>
+        <item x="62"/>
+        <item x="20"/>
+        <item x="41"/>
+        <item x="52"/>
+        <item x="29"/>
+        <item x="58"/>
+        <item x="4"/>
+        <item x="18"/>
+        <item x="44"/>
+        <item x="38"/>
+        <item x="3"/>
+        <item x="2"/>
+        <item x="59"/>
+        <item x="43"/>
+        <item x="31"/>
+        <item x="27"/>
+        <item x="65"/>
+        <item x="19"/>
+        <item x="1"/>
+        <item x="48"/>
+        <item x="45"/>
+        <item x="39"/>
+        <item x="40"/>
+        <item x="14"/>
+        <item x="49"/>
+        <item x="53"/>
+        <item x="17"/>
+        <item x="42"/>
+        <item x="32"/>
+        <item x="60"/>
+        <item x="16"/>
+        <item x="63"/>
+        <item x="55"/>
+        <item x="51"/>
+        <item x="57"/>
+        <item x="56"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="66"/>
+        <item x="64"/>
+        <item x="47"/>
+        <item x="22"/>
+        <item x="24"/>
+        <item x="0"/>
+        <item x="21"/>
+        <item x="37"/>
+        <item x="61"/>
+        <item x="35"/>
+        <item x="26"/>
+        <item x="8"/>
+        <item x="15"/>
+        <item x="5"/>
+      </items>
+      <autoSortScope>
+        <pivotArea dataOnly="0" outline="0" fieldPosition="0">
+          <references count="1">
+            <reference field="4294967294" count="1" selected="0">
+              <x v="0"/>
+            </reference>
+          </references>
+        </pivotArea>
+      </autoSortScope>
+    </pivotField>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField compact="0" numFmtId="10" outline="0" showAll="0" defaultSubtotal="0"/>
+    <pivotField dataField="1" compact="0" outline="0" dragToRow="0" dragToCol="0" dragToPage="0" showAll="0" defaultSubtotal="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="11">
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Soma de Cobertura de Documentação" fld="7" baseField="0" baseItem="0" numFmtId="10"/>
+  </dataFields>
+  <formats count="8">
+    <format dxfId="49">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="48">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="47">
+      <pivotArea outline="0" collapsedLevelsAreSubtotals="1" fieldPosition="0"/>
+    </format>
+    <format dxfId="46">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="45">
+      <pivotArea dataOnly="0" labelOnly="1" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="44">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="43">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+    <format dxfId="42">
+      <pivotArea outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="0" count="0" selected="0"/>
+        </references>
+      </pivotArea>
+    </format>
+  </formats>
+  <chartFormats count="13">
+    <chartFormat chart="1" format="6" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="2" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="12" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="13">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="7"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="14">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="15">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="16">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="9"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="17">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="8"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="18">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="19">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="6"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="20">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="21">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="22">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="0" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <filters count="1">
+    <filter fld="2" type="valueGreaterThan" evalOrder="-1" id="1" iMeasureFld="0">
+      <autoFilter ref="A1">
+        <filterColumn colId="0">
+          <customFilters>
+            <customFilter operator="greaterThan" val="0.2"/>
+          </customFilters>
+        </filterColumn>
+      </autoFilter>
+    </filter>
+  </filters>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Tabela dinâmica2" cacheId="5" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{00000000-0007-0000-0300-000000000000}" name="Tabela dinâmica2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valores" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" compact="0" compactData="0" gridDropZones="1" multipleFieldFilters="0">
   <location ref="H3:O15" firstHeaderRow="1" firstDataRow="2" firstDataCol="1"/>
   <pivotFields count="10">
     <pivotField name="Repositorio" axis="axisRow" compact="0" outline="0" showAll="0" sortType="descending">
@@ -11062,7 +12160,7 @@
     <dataField name="Cobertura de Documentacao" fld="9" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <formats count="2">
-    <format dxfId="4">
+    <format dxfId="14">
       <pivotArea outline="0" fieldPosition="0">
         <references count="2">
           <reference field="4294967294" count="4" selected="0">
@@ -11075,7 +12173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="0">
+    <format dxfId="13">
       <pivotArea outline="0" fieldPosition="0">
         <references count="1">
           <reference field="4294967294" count="1">
@@ -11090,21 +12188,24 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
       <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
     </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
   </extLst>
 </pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabela1" displayName="Tabela1" ref="A1:G191" totalsRowShown="0" headerRowDxfId="28" headerRowBorderDxfId="27" tableBorderDxfId="26" totalsRowBorderDxfId="25">
-  <autoFilter ref="A1:G191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabela1" displayName="Tabela1" ref="A1:G191" totalsRowShown="0" headerRowDxfId="25" headerRowBorderDxfId="24" tableBorderDxfId="23" totalsRowBorderDxfId="22">
+  <autoFilter ref="A1:G191" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Repo" dataDxfId="24"/>
-    <tableColumn id="2" name="Arq" dataDxfId="23"/>
-    <tableColumn id="3" name="Language" dataDxfId="22"/>
-    <tableColumn id="4" name="Branco" dataDxfId="21"/>
-    <tableColumn id="5" name="Comentadas" dataDxfId="20"/>
-    <tableColumn id="6" name="Code" dataDxfId="19"/>
-    <tableColumn id="7" name="Cobertura" dataDxfId="18" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Repo" dataDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Arq" dataDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Language" dataDxfId="19"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Branco" dataDxfId="18"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Comentadas" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Code" dataDxfId="16"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cobertura" dataDxfId="15" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela1[[#This Row],[Comentadas]]/Tabela1[[#This Row],[Code]]</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11113,22 +12214,22 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabela13" displayName="Tabela13" ref="A1:I191" totalsRowShown="0" headerRowDxfId="17" headerRowBorderDxfId="15" tableBorderDxfId="16" totalsRowBorderDxfId="14">
-  <autoFilter ref="A1:I191"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Tabela13" displayName="Tabela13" ref="A1:I191" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10" totalsRowBorderDxfId="9">
+  <autoFilter ref="A1:I191" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="9">
-    <tableColumn id="1" name="Repo" dataDxfId="13"/>
-    <tableColumn id="2" name="Arq" dataDxfId="12"/>
-    <tableColumn id="3" name="Language" dataDxfId="11"/>
-    <tableColumn id="4" name="Branco" dataDxfId="10"/>
-    <tableColumn id="5" name="Comentadas" dataDxfId="9"/>
-    <tableColumn id="6" name="Code" dataDxfId="8"/>
-    <tableColumn id="7" name="Cobertura" dataDxfId="7" dataCellStyle="Porcentagem">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Repo" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Arq" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Language" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Branco" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Comentadas" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Code" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Cobertura" dataDxfId="2" dataCellStyle="Porcentagem">
       <calculatedColumnFormula>Tabela13[[#This Row],[Comentadas]]/Tabela13[[#This Row],[Code]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Stars" dataDxfId="6">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Stars" dataDxfId="1">
       <calculatedColumnFormula>VLOOKUP(A2,$L$4:$O$13,3,FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" name="Forks" dataDxfId="5">
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Forks" dataDxfId="0">
       <calculatedColumnFormula>VLOOKUP(A2,$L$4:$O$13,4,FALSE)</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -11398,7 +12499,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:P211"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -11417,22 +12518,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="23" t="s">
         <v>89</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="H1" s="19" t="s">
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="H1" s="23" t="s">
         <v>91</v>
       </c>
-      <c r="I1" s="19"/>
-      <c r="J1" s="19"/>
-      <c r="K1" s="19"/>
-      <c r="L1" s="19"/>
-      <c r="M1" s="19"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
     </row>
     <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
@@ -11453,14 +12554,14 @@
       <c r="F2" t="s">
         <v>4</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="H2" s="24" t="s">
         <v>90</v>
       </c>
-      <c r="I2" s="21"/>
-      <c r="J2" s="21"/>
-      <c r="K2" s="21"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="26"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -11481,12 +12582,12 @@
       <c r="F3">
         <v>51258</v>
       </c>
-      <c r="H3" s="23"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="24"/>
-      <c r="M3" s="25"/>
+      <c r="H3" s="27"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="29"/>
       <c r="P3" t="s">
         <v>84</v>
       </c>
@@ -11510,12 +12611,12 @@
       <c r="F4">
         <v>9978</v>
       </c>
-      <c r="H4" s="23"/>
-      <c r="I4" s="24"/>
-      <c r="J4" s="24"/>
-      <c r="K4" s="24"/>
-      <c r="L4" s="24"/>
-      <c r="M4" s="25"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
+      <c r="L4" s="28"/>
+      <c r="M4" s="29"/>
       <c r="P4" t="s">
         <v>76</v>
       </c>
@@ -11539,12 +12640,12 @@
       <c r="F5">
         <v>9469</v>
       </c>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24"/>
-      <c r="J5" s="24"/>
-      <c r="K5" s="24"/>
-      <c r="L5" s="24"/>
-      <c r="M5" s="25"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="28"/>
+      <c r="J5" s="28"/>
+      <c r="K5" s="28"/>
+      <c r="L5" s="28"/>
+      <c r="M5" s="29"/>
       <c r="P5" t="s">
         <v>77</v>
       </c>
@@ -11568,12 +12669,12 @@
       <c r="F6">
         <v>786</v>
       </c>
-      <c r="H6" s="23"/>
-      <c r="I6" s="24"/>
-      <c r="J6" s="24"/>
-      <c r="K6" s="24"/>
-      <c r="L6" s="24"/>
-      <c r="M6" s="25"/>
+      <c r="H6" s="27"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="29"/>
       <c r="P6" t="s">
         <v>78</v>
       </c>
@@ -11597,12 +12698,12 @@
       <c r="F7">
         <v>323</v>
       </c>
-      <c r="H7" s="23"/>
-      <c r="I7" s="24"/>
-      <c r="J7" s="24"/>
-      <c r="K7" s="24"/>
-      <c r="L7" s="24"/>
-      <c r="M7" s="25"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="28"/>
+      <c r="J7" s="28"/>
+      <c r="K7" s="28"/>
+      <c r="L7" s="28"/>
+      <c r="M7" s="29"/>
       <c r="P7" t="s">
         <v>85</v>
       </c>
@@ -11626,12 +12727,12 @@
       <c r="F8">
         <v>257</v>
       </c>
-      <c r="H8" s="23"/>
-      <c r="I8" s="24"/>
-      <c r="J8" s="24"/>
-      <c r="K8" s="24"/>
-      <c r="L8" s="24"/>
-      <c r="M8" s="25"/>
+      <c r="H8" s="27"/>
+      <c r="I8" s="28"/>
+      <c r="J8" s="28"/>
+      <c r="K8" s="28"/>
+      <c r="L8" s="28"/>
+      <c r="M8" s="29"/>
       <c r="P8" t="s">
         <v>79</v>
       </c>
@@ -11655,12 +12756,12 @@
       <c r="F9">
         <v>224</v>
       </c>
-      <c r="H9" s="23"/>
-      <c r="I9" s="24"/>
-      <c r="J9" s="24"/>
-      <c r="K9" s="24"/>
-      <c r="L9" s="24"/>
-      <c r="M9" s="25"/>
+      <c r="H9" s="27"/>
+      <c r="I9" s="28"/>
+      <c r="J9" s="28"/>
+      <c r="K9" s="28"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="29"/>
       <c r="P9" t="s">
         <v>80</v>
       </c>
@@ -11684,12 +12785,12 @@
       <c r="F10">
         <v>54</v>
       </c>
-      <c r="H10" s="23"/>
-      <c r="I10" s="24"/>
-      <c r="J10" s="24"/>
-      <c r="K10" s="24"/>
-      <c r="L10" s="24"/>
-      <c r="M10" s="25"/>
+      <c r="H10" s="27"/>
+      <c r="I10" s="28"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="28"/>
+      <c r="L10" s="28"/>
+      <c r="M10" s="29"/>
       <c r="P10" t="s">
         <v>81</v>
       </c>
@@ -11713,12 +12814,12 @@
       <c r="F11">
         <v>21</v>
       </c>
-      <c r="H11" s="23"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="25"/>
+      <c r="H11" s="27"/>
+      <c r="I11" s="28"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="28"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="29"/>
       <c r="P11" t="s">
         <v>82</v>
       </c>
@@ -11742,12 +12843,12 @@
       <c r="F12">
         <v>12</v>
       </c>
-      <c r="H12" s="23"/>
-      <c r="I12" s="24"/>
-      <c r="J12" s="24"/>
-      <c r="K12" s="24"/>
-      <c r="L12" s="24"/>
-      <c r="M12" s="25"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="28"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="28"/>
+      <c r="L12" s="28"/>
+      <c r="M12" s="29"/>
       <c r="P12" t="s">
         <v>83</v>
       </c>
@@ -11771,20 +12872,20 @@
       <c r="F13">
         <v>3</v>
       </c>
-      <c r="H13" s="23"/>
-      <c r="I13" s="24"/>
-      <c r="J13" s="24"/>
-      <c r="K13" s="24"/>
-      <c r="L13" s="24"/>
-      <c r="M13" s="25"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="28"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="29"/>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="H14" s="23"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="24"/>
-      <c r="L14" s="24"/>
-      <c r="M14" s="25"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="28"/>
+      <c r="J14" s="28"/>
+      <c r="K14" s="28"/>
+      <c r="L14" s="28"/>
+      <c r="M14" s="29"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -11802,12 +12903,12 @@
       <c r="F15" t="s">
         <v>4</v>
       </c>
-      <c r="H15" s="23"/>
-      <c r="I15" s="24"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="24"/>
-      <c r="L15" s="24"/>
-      <c r="M15" s="25"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="28"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="28"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="29"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
@@ -11828,12 +12929,12 @@
       <c r="F16">
         <v>306037</v>
       </c>
-      <c r="H16" s="23"/>
-      <c r="I16" s="24"/>
-      <c r="J16" s="24"/>
-      <c r="K16" s="24"/>
-      <c r="L16" s="24"/>
-      <c r="M16" s="25"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+      <c r="L16" s="28"/>
+      <c r="M16" s="29"/>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
@@ -11854,12 +12955,12 @@
       <c r="F17">
         <v>35450</v>
       </c>
-      <c r="H17" s="23"/>
-      <c r="I17" s="24"/>
-      <c r="J17" s="24"/>
-      <c r="K17" s="24"/>
-      <c r="L17" s="24"/>
-      <c r="M17" s="25"/>
+      <c r="H17" s="27"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="29"/>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
@@ -11880,12 +12981,12 @@
       <c r="F18">
         <v>19796</v>
       </c>
-      <c r="H18" s="23"/>
-      <c r="I18" s="24"/>
-      <c r="J18" s="24"/>
-      <c r="K18" s="24"/>
-      <c r="L18" s="24"/>
-      <c r="M18" s="25"/>
+      <c r="H18" s="27"/>
+      <c r="I18" s="28"/>
+      <c r="J18" s="28"/>
+      <c r="K18" s="28"/>
+      <c r="L18" s="28"/>
+      <c r="M18" s="29"/>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
@@ -11906,12 +13007,12 @@
       <c r="F19">
         <v>16991</v>
       </c>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-      <c r="J19" s="24"/>
-      <c r="K19" s="24"/>
-      <c r="L19" s="24"/>
-      <c r="M19" s="25"/>
+      <c r="H19" s="27"/>
+      <c r="I19" s="28"/>
+      <c r="J19" s="28"/>
+      <c r="K19" s="28"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="29"/>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
@@ -11932,12 +13033,12 @@
       <c r="F20">
         <v>8004</v>
       </c>
-      <c r="H20" s="23"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24"/>
-      <c r="M20" s="25"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="28"/>
+      <c r="J20" s="28"/>
+      <c r="K20" s="28"/>
+      <c r="L20" s="28"/>
+      <c r="M20" s="29"/>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
@@ -11958,12 +13059,12 @@
       <c r="F21">
         <v>4590</v>
       </c>
-      <c r="H21" s="23"/>
-      <c r="I21" s="24"/>
-      <c r="J21" s="24"/>
-      <c r="K21" s="24"/>
-      <c r="L21" s="24"/>
-      <c r="M21" s="25"/>
+      <c r="H21" s="27"/>
+      <c r="I21" s="28"/>
+      <c r="J21" s="28"/>
+      <c r="K21" s="28"/>
+      <c r="L21" s="28"/>
+      <c r="M21" s="29"/>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -11984,12 +13085,12 @@
       <c r="F22">
         <v>3474</v>
       </c>
-      <c r="H22" s="23"/>
-      <c r="I22" s="24"/>
-      <c r="J22" s="24"/>
-      <c r="K22" s="24"/>
-      <c r="L22" s="24"/>
-      <c r="M22" s="25"/>
+      <c r="H22" s="27"/>
+      <c r="I22" s="28"/>
+      <c r="J22" s="28"/>
+      <c r="K22" s="28"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="29"/>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
@@ -12010,12 +13111,12 @@
       <c r="F23">
         <v>2129</v>
       </c>
-      <c r="H23" s="23"/>
-      <c r="I23" s="24"/>
-      <c r="J23" s="24"/>
-      <c r="K23" s="24"/>
-      <c r="L23" s="24"/>
-      <c r="M23" s="25"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="28"/>
+      <c r="J23" s="28"/>
+      <c r="K23" s="28"/>
+      <c r="L23" s="28"/>
+      <c r="M23" s="29"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
@@ -12036,12 +13137,12 @@
       <c r="F24">
         <v>1392</v>
       </c>
-      <c r="H24" s="23"/>
-      <c r="I24" s="24"/>
-      <c r="J24" s="24"/>
-      <c r="K24" s="24"/>
-      <c r="L24" s="24"/>
-      <c r="M24" s="25"/>
+      <c r="H24" s="27"/>
+      <c r="I24" s="28"/>
+      <c r="J24" s="28"/>
+      <c r="K24" s="28"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="29"/>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
@@ -12062,12 +13163,12 @@
       <c r="F25">
         <v>781</v>
       </c>
-      <c r="H25" s="23"/>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24"/>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24"/>
-      <c r="M25" s="25"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="28"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="28"/>
+      <c r="L25" s="28"/>
+      <c r="M25" s="29"/>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
@@ -12088,12 +13189,12 @@
       <c r="F26">
         <v>204</v>
       </c>
-      <c r="H26" s="23"/>
-      <c r="I26" s="24"/>
-      <c r="J26" s="24"/>
-      <c r="K26" s="24"/>
-      <c r="L26" s="24"/>
-      <c r="M26" s="25"/>
+      <c r="H26" s="27"/>
+      <c r="I26" s="28"/>
+      <c r="J26" s="28"/>
+      <c r="K26" s="28"/>
+      <c r="L26" s="28"/>
+      <c r="M26" s="29"/>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
@@ -12114,12 +13215,12 @@
       <c r="F27">
         <v>156</v>
       </c>
-      <c r="H27" s="23"/>
-      <c r="I27" s="24"/>
-      <c r="J27" s="24"/>
-      <c r="K27" s="24"/>
-      <c r="L27" s="24"/>
-      <c r="M27" s="25"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="29"/>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
@@ -12140,12 +13241,12 @@
       <c r="F28">
         <v>149</v>
       </c>
-      <c r="H28" s="23"/>
-      <c r="I28" s="24"/>
-      <c r="J28" s="24"/>
-      <c r="K28" s="24"/>
-      <c r="L28" s="24"/>
-      <c r="M28" s="25"/>
+      <c r="H28" s="27"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="29"/>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
@@ -12166,12 +13267,12 @@
       <c r="F29">
         <v>109</v>
       </c>
-      <c r="H29" s="23"/>
-      <c r="I29" s="24"/>
-      <c r="J29" s="24"/>
-      <c r="K29" s="24"/>
-      <c r="L29" s="24"/>
-      <c r="M29" s="25"/>
+      <c r="H29" s="27"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="29"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
@@ -12192,20 +13293,20 @@
       <c r="F30">
         <v>16</v>
       </c>
-      <c r="H30" s="23"/>
-      <c r="I30" s="24"/>
-      <c r="J30" s="24"/>
-      <c r="K30" s="24"/>
-      <c r="L30" s="24"/>
-      <c r="M30" s="25"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="28"/>
+      <c r="J30" s="28"/>
+      <c r="K30" s="28"/>
+      <c r="L30" s="28"/>
+      <c r="M30" s="29"/>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="H31" s="23"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-      <c r="K31" s="24"/>
-      <c r="L31" s="24"/>
-      <c r="M31" s="25"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="28"/>
+      <c r="J31" s="28"/>
+      <c r="K31" s="28"/>
+      <c r="L31" s="28"/>
+      <c r="M31" s="29"/>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
@@ -12223,12 +13324,12 @@
       <c r="F32" t="s">
         <v>4</v>
       </c>
-      <c r="H32" s="23"/>
-      <c r="I32" s="24"/>
-      <c r="J32" s="24"/>
-      <c r="K32" s="24"/>
-      <c r="L32" s="24"/>
-      <c r="M32" s="25"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="28"/>
+      <c r="J32" s="28"/>
+      <c r="K32" s="28"/>
+      <c r="L32" s="28"/>
+      <c r="M32" s="29"/>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
@@ -12249,12 +13350,12 @@
       <c r="F33">
         <v>543088</v>
       </c>
-      <c r="H33" s="23"/>
-      <c r="I33" s="24"/>
-      <c r="J33" s="24"/>
-      <c r="K33" s="24"/>
-      <c r="L33" s="24"/>
-      <c r="M33" s="25"/>
+      <c r="H33" s="27"/>
+      <c r="I33" s="28"/>
+      <c r="J33" s="28"/>
+      <c r="K33" s="28"/>
+      <c r="L33" s="28"/>
+      <c r="M33" s="29"/>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
@@ -12275,12 +13376,12 @@
       <c r="F34">
         <v>188259</v>
       </c>
-      <c r="H34" s="23"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-      <c r="K34" s="24"/>
-      <c r="L34" s="24"/>
-      <c r="M34" s="25"/>
+      <c r="H34" s="27"/>
+      <c r="I34" s="28"/>
+      <c r="J34" s="28"/>
+      <c r="K34" s="28"/>
+      <c r="L34" s="28"/>
+      <c r="M34" s="29"/>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
@@ -12301,12 +13402,12 @@
       <c r="F35">
         <v>37812</v>
       </c>
-      <c r="H35" s="23"/>
-      <c r="I35" s="24"/>
-      <c r="J35" s="24"/>
-      <c r="K35" s="24"/>
-      <c r="L35" s="24"/>
-      <c r="M35" s="25"/>
+      <c r="H35" s="27"/>
+      <c r="I35" s="28"/>
+      <c r="J35" s="28"/>
+      <c r="K35" s="28"/>
+      <c r="L35" s="28"/>
+      <c r="M35" s="29"/>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
@@ -12327,12 +13428,12 @@
       <c r="F36">
         <v>18229</v>
       </c>
-      <c r="H36" s="23"/>
-      <c r="I36" s="24"/>
-      <c r="J36" s="24"/>
-      <c r="K36" s="24"/>
-      <c r="L36" s="24"/>
-      <c r="M36" s="25"/>
+      <c r="H36" s="27"/>
+      <c r="I36" s="28"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="28"/>
+      <c r="L36" s="28"/>
+      <c r="M36" s="29"/>
     </row>
     <row r="37" spans="1:13" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
@@ -12353,12 +13454,12 @@
       <c r="F37">
         <v>13044</v>
       </c>
-      <c r="H37" s="26"/>
-      <c r="I37" s="27"/>
-      <c r="J37" s="27"/>
-      <c r="K37" s="27"/>
-      <c r="L37" s="27"/>
-      <c r="M37" s="28"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31"/>
+      <c r="K37" s="31"/>
+      <c r="L37" s="31"/>
+      <c r="M37" s="32"/>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
@@ -15671,7 +16772,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B3:G164"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -16874,7 +17975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G191"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
@@ -21485,11 +22586,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:O34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="G10" workbookViewId="0">
+      <selection activeCell="AD43" sqref="AD43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -21527,13 +22628,13 @@
       <c r="A2" t="s">
         <v>84</v>
       </c>
-      <c r="B2" s="29">
+      <c r="B2" s="19">
         <v>1331</v>
       </c>
-      <c r="C2" s="29">
+      <c r="C2" s="19">
         <v>20326</v>
       </c>
-      <c r="D2" s="29">
+      <c r="D2" s="19">
         <v>5135</v>
       </c>
     </row>
@@ -21541,13 +22642,13 @@
       <c r="A3" t="s">
         <v>76</v>
       </c>
-      <c r="B3" s="29">
+      <c r="B3" s="19">
         <v>3319</v>
       </c>
-      <c r="C3" s="29">
+      <c r="C3" s="19">
         <v>42880</v>
       </c>
-      <c r="D3" s="29">
+      <c r="D3" s="19">
         <v>10896</v>
       </c>
       <c r="I3" s="10" t="s">
@@ -21558,13 +22659,13 @@
       <c r="A4" t="s">
         <v>77</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="19">
         <v>2059</v>
       </c>
-      <c r="C4" s="29">
+      <c r="C4" s="19">
         <v>33906</v>
       </c>
-      <c r="D4" s="29">
+      <c r="D4" s="19">
         <v>13552</v>
       </c>
       <c r="H4" s="10" t="s">
@@ -21596,34 +22697,34 @@
       <c r="A5" t="s">
         <v>78</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B5" s="19">
         <v>59</v>
       </c>
-      <c r="C5" s="29">
+      <c r="C5" s="19">
         <v>842</v>
       </c>
-      <c r="D5" s="29">
+      <c r="D5" s="19">
         <v>200</v>
       </c>
       <c r="H5" t="s">
         <v>82</v>
       </c>
-      <c r="I5" s="32">
+      <c r="I5" s="22">
         <v>9067</v>
       </c>
-      <c r="J5" s="32">
+      <c r="J5" s="22">
         <v>31</v>
       </c>
-      <c r="K5" s="32">
+      <c r="K5" s="22">
         <v>1904537</v>
       </c>
-      <c r="L5" s="32">
+      <c r="L5" s="22">
         <v>464010</v>
       </c>
-      <c r="M5" s="32">
+      <c r="M5" s="22">
         <v>115103</v>
       </c>
-      <c r="N5" s="32">
+      <c r="N5" s="22">
         <v>69923</v>
       </c>
       <c r="O5" s="12">
@@ -21634,34 +22735,34 @@
       <c r="A6" t="s">
         <v>85</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B6" s="19">
         <v>1426</v>
       </c>
-      <c r="C6" s="29">
+      <c r="C6" s="19">
         <v>57973</v>
       </c>
-      <c r="D6" s="29">
+      <c r="D6" s="19">
         <v>9866</v>
       </c>
       <c r="H6" t="s">
         <v>81</v>
       </c>
-      <c r="I6" s="32">
+      <c r="I6" s="22">
         <v>2938</v>
       </c>
-      <c r="J6" s="32">
+      <c r="J6" s="22">
         <v>23</v>
       </c>
-      <c r="K6" s="32">
+      <c r="K6" s="22">
         <v>269578</v>
       </c>
-      <c r="L6" s="32">
+      <c r="L6" s="22">
         <v>58060</v>
       </c>
-      <c r="M6" s="32">
+      <c r="M6" s="22">
         <v>71216</v>
       </c>
-      <c r="N6" s="32">
+      <c r="N6" s="22">
         <v>15949</v>
       </c>
       <c r="O6" s="12">
@@ -21672,34 +22773,34 @@
       <c r="A7" t="s">
         <v>79</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B7" s="19">
         <v>3343</v>
       </c>
-      <c r="C7" s="29">
+      <c r="C7" s="19">
         <v>51222</v>
       </c>
-      <c r="D7" s="29">
+      <c r="D7" s="19">
         <v>14883</v>
       </c>
       <c r="H7" t="s">
         <v>83</v>
       </c>
-      <c r="I7" s="32">
+      <c r="I7" s="22">
         <v>3034</v>
       </c>
-      <c r="J7" s="32">
+      <c r="J7" s="22">
         <v>44</v>
       </c>
-      <c r="K7" s="32">
+      <c r="K7" s="22">
         <v>748728</v>
       </c>
-      <c r="L7" s="32">
+      <c r="L7" s="22">
         <v>69814</v>
       </c>
-      <c r="M7" s="32">
+      <c r="M7" s="22">
         <v>64480</v>
       </c>
-      <c r="N7" s="32">
+      <c r="N7" s="22">
         <v>8563</v>
       </c>
       <c r="O7" s="12">
@@ -21710,34 +22811,34 @@
       <c r="A8" t="s">
         <v>80</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B8" s="19">
         <v>41</v>
       </c>
-      <c r="C8" s="29">
+      <c r="C8" s="19">
         <v>794</v>
       </c>
-      <c r="D8" s="29">
+      <c r="D8" s="19">
         <v>21936</v>
       </c>
       <c r="H8" t="s">
         <v>85</v>
       </c>
-      <c r="I8" s="32">
+      <c r="I8" s="22">
         <v>2689</v>
       </c>
-      <c r="J8" s="32">
+      <c r="J8" s="22">
         <v>8</v>
       </c>
-      <c r="K8" s="32">
+      <c r="K8" s="22">
         <v>149121</v>
       </c>
-      <c r="L8" s="32">
+      <c r="L8" s="22">
         <v>394</v>
       </c>
-      <c r="M8" s="32">
+      <c r="M8" s="22">
         <v>57973</v>
       </c>
-      <c r="N8" s="32">
+      <c r="N8" s="22">
         <v>9866</v>
       </c>
       <c r="O8" s="12">
@@ -21748,34 +22849,34 @@
       <c r="A9" t="s">
         <v>81</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B9" s="19">
         <v>3727</v>
       </c>
-      <c r="C9" s="29">
+      <c r="C9" s="19">
         <v>71216</v>
       </c>
-      <c r="D9" s="29">
+      <c r="D9" s="19">
         <v>15949</v>
       </c>
       <c r="H9" t="s">
         <v>79</v>
       </c>
-      <c r="I9" s="32">
+      <c r="I9" s="22">
         <v>5031</v>
       </c>
-      <c r="J9" s="32">
+      <c r="J9" s="22">
         <v>16</v>
       </c>
-      <c r="K9" s="32">
+      <c r="K9" s="22">
         <v>975408</v>
       </c>
-      <c r="L9" s="32">
+      <c r="L9" s="22">
         <v>132313</v>
       </c>
-      <c r="M9" s="32">
+      <c r="M9" s="22">
         <v>51222</v>
       </c>
-      <c r="N9" s="32">
+      <c r="N9" s="22">
         <v>14883</v>
       </c>
       <c r="O9" s="12">
@@ -21786,34 +22887,34 @@
       <c r="A10" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="29">
+      <c r="B10" s="19">
         <v>8854</v>
       </c>
-      <c r="C10" s="29">
+      <c r="C10" s="19">
         <v>115103</v>
       </c>
-      <c r="D10" s="29">
+      <c r="D10" s="19">
         <v>69923</v>
       </c>
       <c r="H10" t="s">
         <v>76</v>
       </c>
-      <c r="I10" s="32">
+      <c r="I10" s="22">
         <v>5009</v>
       </c>
-      <c r="J10" s="32">
+      <c r="J10" s="22">
         <v>15</v>
       </c>
-      <c r="K10" s="32">
+      <c r="K10" s="22">
         <v>399278</v>
       </c>
-      <c r="L10" s="32">
+      <c r="L10" s="22">
         <v>69853</v>
       </c>
-      <c r="M10" s="32">
+      <c r="M10" s="22">
         <v>42880</v>
       </c>
-      <c r="N10" s="32">
+      <c r="N10" s="22">
         <v>10896</v>
       </c>
       <c r="O10" s="12">
@@ -21824,34 +22925,34 @@
       <c r="A11" t="s">
         <v>83</v>
       </c>
-      <c r="B11" s="29">
+      <c r="B11" s="19">
         <v>2638</v>
       </c>
-      <c r="C11" s="29">
+      <c r="C11" s="19">
         <v>64480</v>
       </c>
-      <c r="D11" s="29">
+      <c r="D11" s="19">
         <v>8563</v>
       </c>
       <c r="H11" t="s">
         <v>77</v>
       </c>
-      <c r="I11" s="32">
+      <c r="I11" s="22">
         <v>7630</v>
       </c>
-      <c r="J11" s="32">
+      <c r="J11" s="22">
         <v>19</v>
       </c>
-      <c r="K11" s="32">
+      <c r="K11" s="22">
         <v>822278</v>
       </c>
-      <c r="L11" s="32">
+      <c r="L11" s="22">
         <v>371180</v>
       </c>
-      <c r="M11" s="32">
+      <c r="M11" s="22">
         <v>33906</v>
       </c>
-      <c r="N11" s="32">
+      <c r="N11" s="22">
         <v>13552</v>
       </c>
       <c r="O11" s="12">
@@ -21862,22 +22963,22 @@
       <c r="H12" t="s">
         <v>84</v>
       </c>
-      <c r="I12" s="32">
+      <c r="I12" s="22">
         <v>1192</v>
       </c>
-      <c r="J12" s="32">
+      <c r="J12" s="22">
         <v>11</v>
       </c>
-      <c r="K12" s="32">
+      <c r="K12" s="22">
         <v>72385</v>
       </c>
-      <c r="L12" s="32">
+      <c r="L12" s="22">
         <v>10317</v>
       </c>
-      <c r="M12" s="32">
+      <c r="M12" s="22">
         <v>20326</v>
       </c>
-      <c r="N12" s="32">
+      <c r="N12" s="22">
         <v>5135</v>
       </c>
       <c r="O12" s="12">
@@ -21888,22 +22989,22 @@
       <c r="H13" t="s">
         <v>78</v>
       </c>
-      <c r="I13" s="32">
+      <c r="I13" s="22">
         <v>3080</v>
       </c>
-      <c r="J13" s="32">
+      <c r="J13" s="22">
         <v>19</v>
       </c>
-      <c r="K13" s="32">
+      <c r="K13" s="22">
         <v>327424</v>
       </c>
-      <c r="L13" s="32">
+      <c r="L13" s="22">
         <v>33921</v>
       </c>
-      <c r="M13" s="32">
+      <c r="M13" s="22">
         <v>842</v>
       </c>
-      <c r="N13" s="32">
+      <c r="N13" s="22">
         <v>200</v>
       </c>
       <c r="O13" s="12">
@@ -21914,22 +23015,22 @@
       <c r="H14" t="s">
         <v>80</v>
       </c>
-      <c r="I14" s="32">
+      <c r="I14" s="22">
         <v>7</v>
       </c>
-      <c r="J14" s="32">
+      <c r="J14" s="22">
         <v>4</v>
       </c>
-      <c r="K14" s="32">
+      <c r="K14" s="22">
         <v>403</v>
       </c>
-      <c r="L14" s="32">
+      <c r="L14" s="22">
         <v>2</v>
       </c>
-      <c r="M14" s="32">
+      <c r="M14" s="22">
         <v>794</v>
       </c>
-      <c r="N14" s="32">
+      <c r="N14" s="22">
         <v>21936</v>
       </c>
       <c r="O14" s="12">
@@ -21952,24 +23053,113 @@
       <c r="L15" s="11">
         <v>1209864</v>
       </c>
-      <c r="M15" s="32">
+      <c r="M15" s="22">
         <v>57141.005263157895</v>
       </c>
-      <c r="N15" s="32">
+      <c r="N15" s="22">
         <v>19985.394736842107</v>
       </c>
       <c r="O15" s="12">
         <v>0.21341226358848078</v>
+      </c>
+    </row>
+    <row r="24" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H24" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H25" t="s">
+        <v>82</v>
+      </c>
+      <c r="I25" s="12">
+        <v>0.24363401708656748</v>
+      </c>
+    </row>
+    <row r="26" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H26" t="s">
+        <v>81</v>
+      </c>
+      <c r="I26" s="12">
+        <v>0.21537365808782616</v>
+      </c>
+    </row>
+    <row r="27" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H27" t="s">
+        <v>83</v>
+      </c>
+      <c r="I27" s="12">
+        <v>9.3243474265687937E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H28" t="s">
+        <v>85</v>
+      </c>
+      <c r="I28" s="12">
+        <v>2.6421496636959249E-3</v>
+      </c>
+    </row>
+    <row r="29" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H29" t="s">
+        <v>79</v>
+      </c>
+      <c r="I29" s="12">
+        <v>0.13564887718780244</v>
+      </c>
+    </row>
+    <row r="30" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H30" t="s">
+        <v>76</v>
+      </c>
+      <c r="I30" s="12">
+        <v>0.17494828164837531</v>
+      </c>
+    </row>
+    <row r="31" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H31" t="s">
+        <v>77</v>
+      </c>
+      <c r="I31" s="12">
+        <v>0.45140451282899458</v>
+      </c>
+    </row>
+    <row r="32" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H32" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="12">
+        <v>0.14252952959867377</v>
+      </c>
+    </row>
+    <row r="33" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H33" t="s">
+        <v>78</v>
+      </c>
+      <c r="I33" s="12">
+        <v>0.10359961395621579</v>
+      </c>
+    </row>
+    <row r="34" spans="8:9" x14ac:dyDescent="0.25">
+      <c r="H34" t="s">
+        <v>80</v>
+      </c>
+      <c r="I34" s="12">
+        <v>4.9627791563275434E-3</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:O191"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -22010,10 +23200,10 @@
       <c r="G1" s="13" t="s">
         <v>94</v>
       </c>
-      <c r="H1" s="31" t="s">
+      <c r="H1" s="21" t="s">
         <v>114</v>
       </c>
-      <c r="I1" s="31" t="s">
+      <c r="I1" s="21" t="s">
         <v>116</v>
       </c>
     </row>
@@ -22040,11 +23230,11 @@
         <f>Tabela13[[#This Row],[Comentadas]]/Tabela13[[#This Row],[Code]]</f>
         <v>0.19507198876272971</v>
       </c>
-      <c r="H2" s="30">
-        <f t="shared" ref="H2:I33" si="0">VLOOKUP(A2,$L$4:$O$13,3,FALSE)</f>
+      <c r="H2" s="20">
+        <f t="shared" ref="H2:H33" si="0">VLOOKUP(A2,$L$4:$O$13,3,FALSE)</f>
         <v>20326</v>
       </c>
-      <c r="I2" s="30">
+      <c r="I2" s="20">
         <f t="shared" ref="I2:I33" si="1">VLOOKUP(A2,$L$4:$O$13,4,FALSE)</f>
         <v>5135</v>
       </c>
@@ -22127,13 +23317,13 @@
       <c r="L4" t="s">
         <v>84</v>
       </c>
-      <c r="M4" s="29">
+      <c r="M4" s="19">
         <v>1331</v>
       </c>
-      <c r="N4" s="29">
+      <c r="N4" s="19">
         <v>20326</v>
       </c>
-      <c r="O4" s="29">
+      <c r="O4" s="19">
         <v>5135</v>
       </c>
     </row>
@@ -22171,13 +23361,13 @@
       <c r="L5" t="s">
         <v>76</v>
       </c>
-      <c r="M5" s="29">
+      <c r="M5" s="19">
         <v>3319</v>
       </c>
-      <c r="N5" s="29">
+      <c r="N5" s="19">
         <v>42880</v>
       </c>
-      <c r="O5" s="29">
+      <c r="O5" s="19">
         <v>10896</v>
       </c>
     </row>
@@ -22215,13 +23405,13 @@
       <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="M6" s="29">
+      <c r="M6" s="19">
         <v>2059</v>
       </c>
-      <c r="N6" s="29">
+      <c r="N6" s="19">
         <v>33906</v>
       </c>
-      <c r="O6" s="29">
+      <c r="O6" s="19">
         <v>13552</v>
       </c>
     </row>
@@ -22259,13 +23449,13 @@
       <c r="L7" t="s">
         <v>78</v>
       </c>
-      <c r="M7" s="29">
+      <c r="M7" s="19">
         <v>59</v>
       </c>
-      <c r="N7" s="29">
+      <c r="N7" s="19">
         <v>842</v>
       </c>
-      <c r="O7" s="29">
+      <c r="O7" s="19">
         <v>200</v>
       </c>
     </row>
@@ -22303,13 +23493,13 @@
       <c r="L8" t="s">
         <v>85</v>
       </c>
-      <c r="M8" s="29">
+      <c r="M8" s="19">
         <v>1426</v>
       </c>
-      <c r="N8" s="29">
+      <c r="N8" s="19">
         <v>57973</v>
       </c>
-      <c r="O8" s="29">
+      <c r="O8" s="19">
         <v>9866</v>
       </c>
     </row>
@@ -22347,13 +23537,13 @@
       <c r="L9" t="s">
         <v>79</v>
       </c>
-      <c r="M9" s="29">
+      <c r="M9" s="19">
         <v>3343</v>
       </c>
-      <c r="N9" s="29">
+      <c r="N9" s="19">
         <v>51222</v>
       </c>
-      <c r="O9" s="29">
+      <c r="O9" s="19">
         <v>14883</v>
       </c>
     </row>
@@ -22391,13 +23581,13 @@
       <c r="L10" t="s">
         <v>80</v>
       </c>
-      <c r="M10" s="29">
+      <c r="M10" s="19">
         <v>41</v>
       </c>
-      <c r="N10" s="29">
+      <c r="N10" s="19">
         <v>794</v>
       </c>
-      <c r="O10" s="29">
+      <c r="O10" s="19">
         <v>21936</v>
       </c>
     </row>
@@ -22435,13 +23625,13 @@
       <c r="L11" t="s">
         <v>81</v>
       </c>
-      <c r="M11" s="29">
+      <c r="M11" s="19">
         <v>3727</v>
       </c>
-      <c r="N11" s="29">
+      <c r="N11" s="19">
         <v>71216</v>
       </c>
-      <c r="O11" s="29">
+      <c r="O11" s="19">
         <v>15949</v>
       </c>
     </row>
@@ -22479,13 +23669,13 @@
       <c r="L12" t="s">
         <v>82</v>
       </c>
-      <c r="M12" s="29">
+      <c r="M12" s="19">
         <v>8854</v>
       </c>
-      <c r="N12" s="29">
+      <c r="N12" s="19">
         <v>115103</v>
       </c>
-      <c r="O12" s="29">
+      <c r="O12" s="19">
         <v>69923</v>
       </c>
     </row>
@@ -22523,13 +23713,13 @@
       <c r="L13" t="s">
         <v>83</v>
       </c>
-      <c r="M13" s="29">
+      <c r="M13" s="19">
         <v>2638</v>
       </c>
-      <c r="N13" s="29">
+      <c r="N13" s="19">
         <v>64480</v>
       </c>
-      <c r="O13" s="29">
+      <c r="O13" s="19">
         <v>8563</v>
       </c>
     </row>
